--- a/BooleanTcell.xlsx
+++ b/BooleanTcell.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxiangzhou/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxiangzhou/Downloads/ACCORDION_workon/examples/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE09B72A-C13A-364C-8CCD-1311511AABD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69DDC08-AFED-B044-BB7E-FF5B36A2F248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="163">
   <si>
     <t>#</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>Initial 2</t>
+  </si>
+  <si>
+    <t>FOXO1</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,7 +655,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -681,7 +683,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1018,8 +1019,8 @@
   </sheetPr>
   <dimension ref="A1:RT258"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9:AK10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AJ63" sqref="AJ63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1035,9 +1036,9 @@
     <col min="9" max="9" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -1062,565 +1063,565 @@
     <col min="36" max="488" width="24.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:488" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:488" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AD1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AE1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="26" t="s">
+      <c r="AF1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AG1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="26" t="s">
+      <c r="AH1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="26" t="s">
+      <c r="AI1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="28"/>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="28"/>
-      <c r="BO1" s="28"/>
-      <c r="BP1" s="28"/>
-      <c r="BQ1" s="28"/>
-      <c r="BR1" s="28"/>
-      <c r="BS1" s="28"/>
-      <c r="BT1" s="28"/>
-      <c r="BU1" s="28"/>
-      <c r="BV1" s="28"/>
-      <c r="BW1" s="28"/>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="28"/>
-      <c r="CC1" s="28"/>
-      <c r="CD1" s="28"/>
-      <c r="CE1" s="28"/>
-      <c r="CF1" s="28"/>
-      <c r="CG1" s="28"/>
-      <c r="CH1" s="28"/>
-      <c r="CI1" s="28"/>
-      <c r="CJ1" s="28"/>
-      <c r="CK1" s="28"/>
-      <c r="CL1" s="28"/>
-      <c r="CM1" s="28"/>
-      <c r="CN1" s="28"/>
-      <c r="CO1" s="28"/>
-      <c r="CP1" s="28"/>
-      <c r="CQ1" s="28"/>
-      <c r="CR1" s="28"/>
-      <c r="CS1" s="28"/>
-      <c r="CT1" s="28"/>
-      <c r="CU1" s="28"/>
-      <c r="CV1" s="28"/>
-      <c r="CW1" s="28"/>
-      <c r="CX1" s="28"/>
-      <c r="CY1" s="28"/>
-      <c r="CZ1" s="28"/>
-      <c r="DA1" s="28"/>
-      <c r="DB1" s="28"/>
-      <c r="DC1" s="28"/>
-      <c r="DD1" s="28"/>
-      <c r="DE1" s="28"/>
-      <c r="DF1" s="28"/>
-      <c r="DG1" s="28"/>
-      <c r="DH1" s="28"/>
-      <c r="DI1" s="28"/>
-      <c r="DJ1" s="28"/>
-      <c r="DK1" s="28"/>
-      <c r="DL1" s="28"/>
-      <c r="DM1" s="28"/>
-      <c r="DN1" s="28"/>
-      <c r="DO1" s="28"/>
-      <c r="DP1" s="28"/>
-      <c r="DQ1" s="28"/>
-      <c r="DR1" s="28"/>
-      <c r="DS1" s="28"/>
-      <c r="DT1" s="28"/>
-      <c r="DU1" s="28"/>
-      <c r="DV1" s="28"/>
-      <c r="DW1" s="28"/>
-      <c r="DX1" s="28"/>
-      <c r="DY1" s="28"/>
-      <c r="DZ1" s="28"/>
-      <c r="EA1" s="28"/>
-      <c r="EB1" s="28"/>
-      <c r="EC1" s="28"/>
-      <c r="ED1" s="28"/>
-      <c r="EE1" s="28"/>
-      <c r="EF1" s="28"/>
-      <c r="EG1" s="28"/>
-      <c r="EH1" s="28"/>
-      <c r="EI1" s="28"/>
-      <c r="EJ1" s="28"/>
-      <c r="EK1" s="28"/>
-      <c r="EL1" s="28"/>
-      <c r="EM1" s="28"/>
-      <c r="EN1" s="28"/>
-      <c r="EO1" s="28"/>
-      <c r="EP1" s="28"/>
-      <c r="EQ1" s="28"/>
-      <c r="ER1" s="28"/>
-      <c r="ES1" s="28"/>
-      <c r="ET1" s="28"/>
-      <c r="EU1" s="28"/>
-      <c r="EV1" s="28"/>
-      <c r="EW1" s="28"/>
-      <c r="EX1" s="28"/>
-      <c r="EY1" s="28"/>
-      <c r="EZ1" s="28"/>
-      <c r="FA1" s="28"/>
-      <c r="FB1" s="28"/>
-      <c r="FC1" s="28"/>
-      <c r="FD1" s="28"/>
-      <c r="FE1" s="28"/>
-      <c r="FF1" s="28"/>
-      <c r="FG1" s="28"/>
-      <c r="FH1" s="28"/>
-      <c r="FI1" s="28"/>
-      <c r="FJ1" s="28"/>
-      <c r="FK1" s="28"/>
-      <c r="FL1" s="28"/>
-      <c r="FM1" s="28"/>
-      <c r="FN1" s="28"/>
-      <c r="FO1" s="28"/>
-      <c r="FP1" s="28"/>
-      <c r="FQ1" s="28"/>
-      <c r="FR1" s="28"/>
-      <c r="FS1" s="28"/>
-      <c r="FT1" s="28"/>
-      <c r="FU1" s="28"/>
-      <c r="FV1" s="28"/>
-      <c r="FW1" s="28"/>
-      <c r="FX1" s="28"/>
-      <c r="FY1" s="28"/>
-      <c r="FZ1" s="28"/>
-      <c r="GA1" s="28"/>
-      <c r="GB1" s="28"/>
-      <c r="GC1" s="28"/>
-      <c r="GD1" s="28"/>
-      <c r="GE1" s="28"/>
-      <c r="GF1" s="28"/>
-      <c r="GG1" s="28"/>
-      <c r="GH1" s="28"/>
-      <c r="GI1" s="28"/>
-      <c r="GJ1" s="28"/>
-      <c r="GK1" s="28"/>
-      <c r="GL1" s="28"/>
-      <c r="GM1" s="28"/>
-      <c r="GN1" s="28"/>
-      <c r="GO1" s="28"/>
-      <c r="GP1" s="28"/>
-      <c r="GQ1" s="28"/>
-      <c r="GR1" s="28"/>
-      <c r="GS1" s="28"/>
-      <c r="GT1" s="28"/>
-      <c r="GU1" s="28"/>
-      <c r="GV1" s="28"/>
-      <c r="GW1" s="28"/>
-      <c r="GX1" s="28"/>
-      <c r="GY1" s="28"/>
-      <c r="GZ1" s="28"/>
-      <c r="HA1" s="28"/>
-      <c r="HB1" s="28"/>
-      <c r="HC1" s="28"/>
-      <c r="HD1" s="28"/>
-      <c r="HE1" s="28"/>
-      <c r="HF1" s="28"/>
-      <c r="HG1" s="28"/>
-      <c r="HH1" s="28"/>
-      <c r="HI1" s="28"/>
-      <c r="HJ1" s="28"/>
-      <c r="HK1" s="28"/>
-      <c r="HL1" s="28"/>
-      <c r="HM1" s="28"/>
-      <c r="HN1" s="28"/>
-      <c r="HO1" s="28"/>
-      <c r="HP1" s="28"/>
-      <c r="HQ1" s="28"/>
-      <c r="HR1" s="28"/>
-      <c r="HS1" s="28"/>
-      <c r="HT1" s="28"/>
-      <c r="HU1" s="28"/>
-      <c r="HV1" s="28"/>
-      <c r="HW1" s="28"/>
-      <c r="HX1" s="28"/>
-      <c r="HY1" s="28"/>
-      <c r="HZ1" s="28"/>
-      <c r="IA1" s="28"/>
-      <c r="IB1" s="28"/>
-      <c r="IC1" s="28"/>
-      <c r="ID1" s="28"/>
-      <c r="IE1" s="28"/>
-      <c r="IF1" s="28"/>
-      <c r="IG1" s="28"/>
-      <c r="IH1" s="28"/>
-      <c r="II1" s="28"/>
-      <c r="IJ1" s="28"/>
-      <c r="IK1" s="28"/>
-      <c r="IL1" s="28"/>
-      <c r="IM1" s="28"/>
-      <c r="IN1" s="28"/>
-      <c r="IO1" s="28"/>
-      <c r="IP1" s="28"/>
-      <c r="IQ1" s="28"/>
-      <c r="IR1" s="28"/>
-      <c r="IS1" s="28"/>
-      <c r="IT1" s="28"/>
-      <c r="IU1" s="28"/>
-      <c r="IV1" s="28"/>
-      <c r="IW1" s="28"/>
-      <c r="IX1" s="28"/>
-      <c r="IY1" s="28"/>
-      <c r="IZ1" s="28"/>
-      <c r="JA1" s="28"/>
-      <c r="JB1" s="28"/>
-      <c r="JC1" s="28"/>
-      <c r="JD1" s="28"/>
-      <c r="JE1" s="28"/>
-      <c r="JF1" s="28"/>
-      <c r="JG1" s="28"/>
-      <c r="JH1" s="28"/>
-      <c r="JI1" s="28"/>
-      <c r="JJ1" s="28"/>
-      <c r="JK1" s="28"/>
-      <c r="JL1" s="28"/>
-      <c r="JM1" s="28"/>
-      <c r="JN1" s="28"/>
-      <c r="JO1" s="28"/>
-      <c r="JP1" s="28"/>
-      <c r="JQ1" s="28"/>
-      <c r="JR1" s="28"/>
-      <c r="JS1" s="28"/>
-      <c r="JT1" s="28"/>
-      <c r="JU1" s="28"/>
-      <c r="JV1" s="28"/>
-      <c r="JW1" s="28"/>
-      <c r="JX1" s="28"/>
-      <c r="JY1" s="28"/>
-      <c r="JZ1" s="28"/>
-      <c r="KA1" s="28"/>
-      <c r="KB1" s="28"/>
-      <c r="KC1" s="28"/>
-      <c r="KD1" s="28"/>
-      <c r="KE1" s="28"/>
-      <c r="KF1" s="28"/>
-      <c r="KG1" s="28"/>
-      <c r="KH1" s="28"/>
-      <c r="KI1" s="28"/>
-      <c r="KJ1" s="28"/>
-      <c r="KK1" s="28"/>
-      <c r="KL1" s="28"/>
-      <c r="KM1" s="28"/>
-      <c r="KN1" s="28"/>
-      <c r="KO1" s="28"/>
-      <c r="KP1" s="28"/>
-      <c r="KQ1" s="28"/>
-      <c r="KR1" s="28"/>
-      <c r="KS1" s="28"/>
-      <c r="KT1" s="28"/>
-      <c r="KU1" s="28"/>
-      <c r="KV1" s="28"/>
-      <c r="KW1" s="28"/>
-      <c r="KX1" s="28"/>
-      <c r="KY1" s="28"/>
-      <c r="KZ1" s="28"/>
-      <c r="LA1" s="28"/>
-      <c r="LB1" s="28"/>
-      <c r="LC1" s="28"/>
-      <c r="LD1" s="28"/>
-      <c r="LE1" s="28"/>
-      <c r="LF1" s="28"/>
-      <c r="LG1" s="28"/>
-      <c r="LH1" s="28"/>
-      <c r="LI1" s="28"/>
-      <c r="LJ1" s="28"/>
-      <c r="LK1" s="28"/>
-      <c r="LL1" s="28"/>
-      <c r="LM1" s="28"/>
-      <c r="LN1" s="28"/>
-      <c r="LO1" s="28"/>
-      <c r="LP1" s="28"/>
-      <c r="LQ1" s="28"/>
-      <c r="LR1" s="28"/>
-      <c r="LS1" s="28"/>
-      <c r="LT1" s="28"/>
-      <c r="LU1" s="28"/>
-      <c r="LV1" s="28"/>
-      <c r="LW1" s="28"/>
-      <c r="LX1" s="28"/>
-      <c r="LY1" s="28"/>
-      <c r="LZ1" s="28"/>
-      <c r="MA1" s="28"/>
-      <c r="MB1" s="28"/>
-      <c r="MC1" s="28"/>
-      <c r="MD1" s="28"/>
-      <c r="ME1" s="28"/>
-      <c r="MF1" s="28"/>
-      <c r="MG1" s="28"/>
-      <c r="MH1" s="28"/>
-      <c r="MI1" s="28"/>
-      <c r="MJ1" s="28"/>
-      <c r="MK1" s="28"/>
-      <c r="ML1" s="28"/>
-      <c r="MM1" s="28"/>
-      <c r="MN1" s="28"/>
-      <c r="MO1" s="28"/>
-      <c r="MP1" s="28"/>
-      <c r="MQ1" s="28"/>
-      <c r="MR1" s="28"/>
-      <c r="MS1" s="28"/>
-      <c r="MT1" s="28"/>
-      <c r="MU1" s="28"/>
-      <c r="MV1" s="28"/>
-      <c r="MW1" s="28"/>
-      <c r="MX1" s="28"/>
-      <c r="MY1" s="28"/>
-      <c r="MZ1" s="28"/>
-      <c r="NA1" s="28"/>
-      <c r="NB1" s="28"/>
-      <c r="NC1" s="28"/>
-      <c r="ND1" s="28"/>
-      <c r="NE1" s="28"/>
-      <c r="NF1" s="28"/>
-      <c r="NG1" s="28"/>
-      <c r="NH1" s="28"/>
-      <c r="NI1" s="28"/>
-      <c r="NJ1" s="28"/>
-      <c r="NK1" s="28"/>
-      <c r="NL1" s="28"/>
-      <c r="NM1" s="28"/>
-      <c r="NN1" s="28"/>
-      <c r="NO1" s="28"/>
-      <c r="NP1" s="28"/>
-      <c r="NQ1" s="28"/>
-      <c r="NR1" s="28"/>
-      <c r="NS1" s="28"/>
-      <c r="NT1" s="28"/>
-      <c r="NU1" s="28"/>
-      <c r="NV1" s="28"/>
-      <c r="NW1" s="28"/>
-      <c r="NX1" s="28"/>
-      <c r="NY1" s="28"/>
-      <c r="NZ1" s="28"/>
-      <c r="OA1" s="28"/>
-      <c r="OB1" s="28"/>
-      <c r="OC1" s="28"/>
-      <c r="OD1" s="28"/>
-      <c r="OE1" s="28"/>
-      <c r="OF1" s="28"/>
-      <c r="OG1" s="28"/>
-      <c r="OH1" s="28"/>
-      <c r="OI1" s="28"/>
-      <c r="OJ1" s="28"/>
-      <c r="OK1" s="28"/>
-      <c r="OL1" s="28"/>
-      <c r="OM1" s="28"/>
-      <c r="ON1" s="28"/>
-      <c r="OO1" s="28"/>
-      <c r="OP1" s="28"/>
-      <c r="OQ1" s="28"/>
-      <c r="OR1" s="28"/>
-      <c r="OS1" s="28"/>
-      <c r="OT1" s="28"/>
-      <c r="OU1" s="28"/>
-      <c r="OV1" s="28"/>
-      <c r="OW1" s="28"/>
-      <c r="OX1" s="28"/>
-      <c r="OY1" s="28"/>
-      <c r="OZ1" s="28"/>
-      <c r="PA1" s="28"/>
-      <c r="PB1" s="28"/>
-      <c r="PC1" s="28"/>
-      <c r="PD1" s="28"/>
-      <c r="PE1" s="28"/>
-      <c r="PF1" s="28"/>
-      <c r="PG1" s="28"/>
-      <c r="PH1" s="28"/>
-      <c r="PI1" s="28"/>
-      <c r="PJ1" s="28"/>
-      <c r="PK1" s="28"/>
-      <c r="PL1" s="28"/>
-      <c r="PM1" s="28"/>
-      <c r="PN1" s="28"/>
-      <c r="PO1" s="28"/>
-      <c r="PP1" s="28"/>
-      <c r="PQ1" s="28"/>
-      <c r="PR1" s="28"/>
-      <c r="PS1" s="28"/>
-      <c r="PT1" s="28"/>
-      <c r="PU1" s="28"/>
-      <c r="PV1" s="28"/>
-      <c r="PW1" s="28"/>
-      <c r="PX1" s="28"/>
-      <c r="PY1" s="28"/>
-      <c r="PZ1" s="28"/>
-      <c r="QA1" s="28"/>
-      <c r="QB1" s="28"/>
-      <c r="QC1" s="28"/>
-      <c r="QD1" s="28"/>
-      <c r="QE1" s="28"/>
-      <c r="QF1" s="28"/>
-      <c r="QG1" s="28"/>
-      <c r="QH1" s="28"/>
-      <c r="QI1" s="28"/>
-      <c r="QJ1" s="28"/>
-      <c r="QK1" s="28"/>
-      <c r="QL1" s="28"/>
-      <c r="QM1" s="28"/>
-      <c r="QN1" s="28"/>
-      <c r="QO1" s="28"/>
-      <c r="QP1" s="28"/>
-      <c r="QQ1" s="28"/>
-      <c r="QR1" s="28"/>
-      <c r="QS1" s="28"/>
-      <c r="QT1" s="28"/>
-      <c r="QU1" s="28"/>
-      <c r="QV1" s="28"/>
-      <c r="QW1" s="28"/>
-      <c r="QX1" s="28"/>
-      <c r="QY1" s="28"/>
-      <c r="QZ1" s="28"/>
-      <c r="RA1" s="28"/>
-      <c r="RB1" s="28"/>
-      <c r="RC1" s="28"/>
-      <c r="RD1" s="28"/>
-      <c r="RE1" s="28"/>
-      <c r="RF1" s="28"/>
-      <c r="RG1" s="28"/>
-      <c r="RH1" s="28"/>
-      <c r="RI1" s="28"/>
-      <c r="RJ1" s="28"/>
-      <c r="RK1" s="28"/>
-      <c r="RL1" s="28"/>
-      <c r="RM1" s="28"/>
-      <c r="RN1" s="28"/>
-      <c r="RO1" s="28"/>
-      <c r="RP1" s="28"/>
-      <c r="RQ1" s="28"/>
-      <c r="RR1" s="28"/>
-      <c r="RS1" s="28"/>
-      <c r="RT1" s="28"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="26"/>
+      <c r="BF1" s="26"/>
+      <c r="BG1" s="26"/>
+      <c r="BH1" s="26"/>
+      <c r="BI1" s="26"/>
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="26"/>
+      <c r="BL1" s="26"/>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="26"/>
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BS1" s="26"/>
+      <c r="BT1" s="26"/>
+      <c r="BU1" s="26"/>
+      <c r="BV1" s="26"/>
+      <c r="BW1" s="26"/>
+      <c r="BX1" s="26"/>
+      <c r="BY1" s="26"/>
+      <c r="BZ1" s="26"/>
+      <c r="CA1" s="26"/>
+      <c r="CB1" s="26"/>
+      <c r="CC1" s="26"/>
+      <c r="CD1" s="26"/>
+      <c r="CE1" s="26"/>
+      <c r="CF1" s="26"/>
+      <c r="CG1" s="26"/>
+      <c r="CH1" s="26"/>
+      <c r="CI1" s="26"/>
+      <c r="CJ1" s="26"/>
+      <c r="CK1" s="26"/>
+      <c r="CL1" s="26"/>
+      <c r="CM1" s="26"/>
+      <c r="CN1" s="26"/>
+      <c r="CO1" s="26"/>
+      <c r="CP1" s="26"/>
+      <c r="CQ1" s="26"/>
+      <c r="CR1" s="26"/>
+      <c r="CS1" s="26"/>
+      <c r="CT1" s="26"/>
+      <c r="CU1" s="26"/>
+      <c r="CV1" s="26"/>
+      <c r="CW1" s="26"/>
+      <c r="CX1" s="26"/>
+      <c r="CY1" s="26"/>
+      <c r="CZ1" s="26"/>
+      <c r="DA1" s="26"/>
+      <c r="DB1" s="26"/>
+      <c r="DC1" s="26"/>
+      <c r="DD1" s="26"/>
+      <c r="DE1" s="26"/>
+      <c r="DF1" s="26"/>
+      <c r="DG1" s="26"/>
+      <c r="DH1" s="26"/>
+      <c r="DI1" s="26"/>
+      <c r="DJ1" s="26"/>
+      <c r="DK1" s="26"/>
+      <c r="DL1" s="26"/>
+      <c r="DM1" s="26"/>
+      <c r="DN1" s="26"/>
+      <c r="DO1" s="26"/>
+      <c r="DP1" s="26"/>
+      <c r="DQ1" s="26"/>
+      <c r="DR1" s="26"/>
+      <c r="DS1" s="26"/>
+      <c r="DT1" s="26"/>
+      <c r="DU1" s="26"/>
+      <c r="DV1" s="26"/>
+      <c r="DW1" s="26"/>
+      <c r="DX1" s="26"/>
+      <c r="DY1" s="26"/>
+      <c r="DZ1" s="26"/>
+      <c r="EA1" s="26"/>
+      <c r="EB1" s="26"/>
+      <c r="EC1" s="26"/>
+      <c r="ED1" s="26"/>
+      <c r="EE1" s="26"/>
+      <c r="EF1" s="26"/>
+      <c r="EG1" s="26"/>
+      <c r="EH1" s="26"/>
+      <c r="EI1" s="26"/>
+      <c r="EJ1" s="26"/>
+      <c r="EK1" s="26"/>
+      <c r="EL1" s="26"/>
+      <c r="EM1" s="26"/>
+      <c r="EN1" s="26"/>
+      <c r="EO1" s="26"/>
+      <c r="EP1" s="26"/>
+      <c r="EQ1" s="26"/>
+      <c r="ER1" s="26"/>
+      <c r="ES1" s="26"/>
+      <c r="ET1" s="26"/>
+      <c r="EU1" s="26"/>
+      <c r="EV1" s="26"/>
+      <c r="EW1" s="26"/>
+      <c r="EX1" s="26"/>
+      <c r="EY1" s="26"/>
+      <c r="EZ1" s="26"/>
+      <c r="FA1" s="26"/>
+      <c r="FB1" s="26"/>
+      <c r="FC1" s="26"/>
+      <c r="FD1" s="26"/>
+      <c r="FE1" s="26"/>
+      <c r="FF1" s="26"/>
+      <c r="FG1" s="26"/>
+      <c r="FH1" s="26"/>
+      <c r="FI1" s="26"/>
+      <c r="FJ1" s="26"/>
+      <c r="FK1" s="26"/>
+      <c r="FL1" s="26"/>
+      <c r="FM1" s="26"/>
+      <c r="FN1" s="26"/>
+      <c r="FO1" s="26"/>
+      <c r="FP1" s="26"/>
+      <c r="FQ1" s="26"/>
+      <c r="FR1" s="26"/>
+      <c r="FS1" s="26"/>
+      <c r="FT1" s="26"/>
+      <c r="FU1" s="26"/>
+      <c r="FV1" s="26"/>
+      <c r="FW1" s="26"/>
+      <c r="FX1" s="26"/>
+      <c r="FY1" s="26"/>
+      <c r="FZ1" s="26"/>
+      <c r="GA1" s="26"/>
+      <c r="GB1" s="26"/>
+      <c r="GC1" s="26"/>
+      <c r="GD1" s="26"/>
+      <c r="GE1" s="26"/>
+      <c r="GF1" s="26"/>
+      <c r="GG1" s="26"/>
+      <c r="GH1" s="26"/>
+      <c r="GI1" s="26"/>
+      <c r="GJ1" s="26"/>
+      <c r="GK1" s="26"/>
+      <c r="GL1" s="26"/>
+      <c r="GM1" s="26"/>
+      <c r="GN1" s="26"/>
+      <c r="GO1" s="26"/>
+      <c r="GP1" s="26"/>
+      <c r="GQ1" s="26"/>
+      <c r="GR1" s="26"/>
+      <c r="GS1" s="26"/>
+      <c r="GT1" s="26"/>
+      <c r="GU1" s="26"/>
+      <c r="GV1" s="26"/>
+      <c r="GW1" s="26"/>
+      <c r="GX1" s="26"/>
+      <c r="GY1" s="26"/>
+      <c r="GZ1" s="26"/>
+      <c r="HA1" s="26"/>
+      <c r="HB1" s="26"/>
+      <c r="HC1" s="26"/>
+      <c r="HD1" s="26"/>
+      <c r="HE1" s="26"/>
+      <c r="HF1" s="26"/>
+      <c r="HG1" s="26"/>
+      <c r="HH1" s="26"/>
+      <c r="HI1" s="26"/>
+      <c r="HJ1" s="26"/>
+      <c r="HK1" s="26"/>
+      <c r="HL1" s="26"/>
+      <c r="HM1" s="26"/>
+      <c r="HN1" s="26"/>
+      <c r="HO1" s="26"/>
+      <c r="HP1" s="26"/>
+      <c r="HQ1" s="26"/>
+      <c r="HR1" s="26"/>
+      <c r="HS1" s="26"/>
+      <c r="HT1" s="26"/>
+      <c r="HU1" s="26"/>
+      <c r="HV1" s="26"/>
+      <c r="HW1" s="26"/>
+      <c r="HX1" s="26"/>
+      <c r="HY1" s="26"/>
+      <c r="HZ1" s="26"/>
+      <c r="IA1" s="26"/>
+      <c r="IB1" s="26"/>
+      <c r="IC1" s="26"/>
+      <c r="ID1" s="26"/>
+      <c r="IE1" s="26"/>
+      <c r="IF1" s="26"/>
+      <c r="IG1" s="26"/>
+      <c r="IH1" s="26"/>
+      <c r="II1" s="26"/>
+      <c r="IJ1" s="26"/>
+      <c r="IK1" s="26"/>
+      <c r="IL1" s="26"/>
+      <c r="IM1" s="26"/>
+      <c r="IN1" s="26"/>
+      <c r="IO1" s="26"/>
+      <c r="IP1" s="26"/>
+      <c r="IQ1" s="26"/>
+      <c r="IR1" s="26"/>
+      <c r="IS1" s="26"/>
+      <c r="IT1" s="26"/>
+      <c r="IU1" s="26"/>
+      <c r="IV1" s="26"/>
+      <c r="IW1" s="26"/>
+      <c r="IX1" s="26"/>
+      <c r="IY1" s="26"/>
+      <c r="IZ1" s="26"/>
+      <c r="JA1" s="26"/>
+      <c r="JB1" s="26"/>
+      <c r="JC1" s="26"/>
+      <c r="JD1" s="26"/>
+      <c r="JE1" s="26"/>
+      <c r="JF1" s="26"/>
+      <c r="JG1" s="26"/>
+      <c r="JH1" s="26"/>
+      <c r="JI1" s="26"/>
+      <c r="JJ1" s="26"/>
+      <c r="JK1" s="26"/>
+      <c r="JL1" s="26"/>
+      <c r="JM1" s="26"/>
+      <c r="JN1" s="26"/>
+      <c r="JO1" s="26"/>
+      <c r="JP1" s="26"/>
+      <c r="JQ1" s="26"/>
+      <c r="JR1" s="26"/>
+      <c r="JS1" s="26"/>
+      <c r="JT1" s="26"/>
+      <c r="JU1" s="26"/>
+      <c r="JV1" s="26"/>
+      <c r="JW1" s="26"/>
+      <c r="JX1" s="26"/>
+      <c r="JY1" s="26"/>
+      <c r="JZ1" s="26"/>
+      <c r="KA1" s="26"/>
+      <c r="KB1" s="26"/>
+      <c r="KC1" s="26"/>
+      <c r="KD1" s="26"/>
+      <c r="KE1" s="26"/>
+      <c r="KF1" s="26"/>
+      <c r="KG1" s="26"/>
+      <c r="KH1" s="26"/>
+      <c r="KI1" s="26"/>
+      <c r="KJ1" s="26"/>
+      <c r="KK1" s="26"/>
+      <c r="KL1" s="26"/>
+      <c r="KM1" s="26"/>
+      <c r="KN1" s="26"/>
+      <c r="KO1" s="26"/>
+      <c r="KP1" s="26"/>
+      <c r="KQ1" s="26"/>
+      <c r="KR1" s="26"/>
+      <c r="KS1" s="26"/>
+      <c r="KT1" s="26"/>
+      <c r="KU1" s="26"/>
+      <c r="KV1" s="26"/>
+      <c r="KW1" s="26"/>
+      <c r="KX1" s="26"/>
+      <c r="KY1" s="26"/>
+      <c r="KZ1" s="26"/>
+      <c r="LA1" s="26"/>
+      <c r="LB1" s="26"/>
+      <c r="LC1" s="26"/>
+      <c r="LD1" s="26"/>
+      <c r="LE1" s="26"/>
+      <c r="LF1" s="26"/>
+      <c r="LG1" s="26"/>
+      <c r="LH1" s="26"/>
+      <c r="LI1" s="26"/>
+      <c r="LJ1" s="26"/>
+      <c r="LK1" s="26"/>
+      <c r="LL1" s="26"/>
+      <c r="LM1" s="26"/>
+      <c r="LN1" s="26"/>
+      <c r="LO1" s="26"/>
+      <c r="LP1" s="26"/>
+      <c r="LQ1" s="26"/>
+      <c r="LR1" s="26"/>
+      <c r="LS1" s="26"/>
+      <c r="LT1" s="26"/>
+      <c r="LU1" s="26"/>
+      <c r="LV1" s="26"/>
+      <c r="LW1" s="26"/>
+      <c r="LX1" s="26"/>
+      <c r="LY1" s="26"/>
+      <c r="LZ1" s="26"/>
+      <c r="MA1" s="26"/>
+      <c r="MB1" s="26"/>
+      <c r="MC1" s="26"/>
+      <c r="MD1" s="26"/>
+      <c r="ME1" s="26"/>
+      <c r="MF1" s="26"/>
+      <c r="MG1" s="26"/>
+      <c r="MH1" s="26"/>
+      <c r="MI1" s="26"/>
+      <c r="MJ1" s="26"/>
+      <c r="MK1" s="26"/>
+      <c r="ML1" s="26"/>
+      <c r="MM1" s="26"/>
+      <c r="MN1" s="26"/>
+      <c r="MO1" s="26"/>
+      <c r="MP1" s="26"/>
+      <c r="MQ1" s="26"/>
+      <c r="MR1" s="26"/>
+      <c r="MS1" s="26"/>
+      <c r="MT1" s="26"/>
+      <c r="MU1" s="26"/>
+      <c r="MV1" s="26"/>
+      <c r="MW1" s="26"/>
+      <c r="MX1" s="26"/>
+      <c r="MY1" s="26"/>
+      <c r="MZ1" s="26"/>
+      <c r="NA1" s="26"/>
+      <c r="NB1" s="26"/>
+      <c r="NC1" s="26"/>
+      <c r="ND1" s="26"/>
+      <c r="NE1" s="26"/>
+      <c r="NF1" s="26"/>
+      <c r="NG1" s="26"/>
+      <c r="NH1" s="26"/>
+      <c r="NI1" s="26"/>
+      <c r="NJ1" s="26"/>
+      <c r="NK1" s="26"/>
+      <c r="NL1" s="26"/>
+      <c r="NM1" s="26"/>
+      <c r="NN1" s="26"/>
+      <c r="NO1" s="26"/>
+      <c r="NP1" s="26"/>
+      <c r="NQ1" s="26"/>
+      <c r="NR1" s="26"/>
+      <c r="NS1" s="26"/>
+      <c r="NT1" s="26"/>
+      <c r="NU1" s="26"/>
+      <c r="NV1" s="26"/>
+      <c r="NW1" s="26"/>
+      <c r="NX1" s="26"/>
+      <c r="NY1" s="26"/>
+      <c r="NZ1" s="26"/>
+      <c r="OA1" s="26"/>
+      <c r="OB1" s="26"/>
+      <c r="OC1" s="26"/>
+      <c r="OD1" s="26"/>
+      <c r="OE1" s="26"/>
+      <c r="OF1" s="26"/>
+      <c r="OG1" s="26"/>
+      <c r="OH1" s="26"/>
+      <c r="OI1" s="26"/>
+      <c r="OJ1" s="26"/>
+      <c r="OK1" s="26"/>
+      <c r="OL1" s="26"/>
+      <c r="OM1" s="26"/>
+      <c r="ON1" s="26"/>
+      <c r="OO1" s="26"/>
+      <c r="OP1" s="26"/>
+      <c r="OQ1" s="26"/>
+      <c r="OR1" s="26"/>
+      <c r="OS1" s="26"/>
+      <c r="OT1" s="26"/>
+      <c r="OU1" s="26"/>
+      <c r="OV1" s="26"/>
+      <c r="OW1" s="26"/>
+      <c r="OX1" s="26"/>
+      <c r="OY1" s="26"/>
+      <c r="OZ1" s="26"/>
+      <c r="PA1" s="26"/>
+      <c r="PB1" s="26"/>
+      <c r="PC1" s="26"/>
+      <c r="PD1" s="26"/>
+      <c r="PE1" s="26"/>
+      <c r="PF1" s="26"/>
+      <c r="PG1" s="26"/>
+      <c r="PH1" s="26"/>
+      <c r="PI1" s="26"/>
+      <c r="PJ1" s="26"/>
+      <c r="PK1" s="26"/>
+      <c r="PL1" s="26"/>
+      <c r="PM1" s="26"/>
+      <c r="PN1" s="26"/>
+      <c r="PO1" s="26"/>
+      <c r="PP1" s="26"/>
+      <c r="PQ1" s="26"/>
+      <c r="PR1" s="26"/>
+      <c r="PS1" s="26"/>
+      <c r="PT1" s="26"/>
+      <c r="PU1" s="26"/>
+      <c r="PV1" s="26"/>
+      <c r="PW1" s="26"/>
+      <c r="PX1" s="26"/>
+      <c r="PY1" s="26"/>
+      <c r="PZ1" s="26"/>
+      <c r="QA1" s="26"/>
+      <c r="QB1" s="26"/>
+      <c r="QC1" s="26"/>
+      <c r="QD1" s="26"/>
+      <c r="QE1" s="26"/>
+      <c r="QF1" s="26"/>
+      <c r="QG1" s="26"/>
+      <c r="QH1" s="26"/>
+      <c r="QI1" s="26"/>
+      <c r="QJ1" s="26"/>
+      <c r="QK1" s="26"/>
+      <c r="QL1" s="26"/>
+      <c r="QM1" s="26"/>
+      <c r="QN1" s="26"/>
+      <c r="QO1" s="26"/>
+      <c r="QP1" s="26"/>
+      <c r="QQ1" s="26"/>
+      <c r="QR1" s="26"/>
+      <c r="QS1" s="26"/>
+      <c r="QT1" s="26"/>
+      <c r="QU1" s="26"/>
+      <c r="QV1" s="26"/>
+      <c r="QW1" s="26"/>
+      <c r="QX1" s="26"/>
+      <c r="QY1" s="26"/>
+      <c r="QZ1" s="26"/>
+      <c r="RA1" s="26"/>
+      <c r="RB1" s="26"/>
+      <c r="RC1" s="26"/>
+      <c r="RD1" s="26"/>
+      <c r="RE1" s="26"/>
+      <c r="RF1" s="26"/>
+      <c r="RG1" s="26"/>
+      <c r="RH1" s="26"/>
+      <c r="RI1" s="26"/>
+      <c r="RJ1" s="26"/>
+      <c r="RK1" s="26"/>
+      <c r="RL1" s="26"/>
+      <c r="RM1" s="26"/>
+      <c r="RN1" s="26"/>
+      <c r="RO1" s="26"/>
+      <c r="RP1" s="26"/>
+      <c r="RQ1" s="26"/>
+      <c r="RR1" s="26"/>
+      <c r="RS1" s="26"/>
+      <c r="RT1" s="26"/>
     </row>
     <row r="2" spans="1:488" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
@@ -1629,54 +1630,54 @@
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
       <c r="S2" s="4">
         <v>2</v>
       </c>
       <c r="T2" s="1"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
       <c r="AC2" s="4">
         <v>0</v>
       </c>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
       <c r="AF2" s="4">
         <v>0</v>
       </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
       <c r="AI2" s="4">
         <v>0</v>
       </c>
@@ -1688,7 +1689,7 @@
       <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="4" t="s">
         <v>95</v>
       </c>
@@ -1736,17 +1737,17 @@
       </c>
     </row>
     <row r="4" spans="1:488" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>106</v>
       </c>
       <c r="F4" s="7"/>
@@ -1754,19 +1755,19 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>143</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="17"/>
+      <c r="O4" s="16"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="17">
+      <c r="S4" s="16">
         <v>2</v>
       </c>
       <c r="T4" s="7"/>
@@ -1778,485 +1779,485 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="16">
         <v>0</v>
       </c>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
-      <c r="AF4" s="17">
+      <c r="AF4" s="16">
         <v>0</v>
       </c>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
-      <c r="AI4" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
-      <c r="BB4" s="17"/>
-      <c r="BC4" s="17"/>
-      <c r="BD4" s="17"/>
-      <c r="BE4" s="17"/>
-      <c r="BF4" s="17"/>
-      <c r="BG4" s="17"/>
-      <c r="BH4" s="17"/>
-      <c r="BI4" s="17"/>
-      <c r="BJ4" s="17"/>
-      <c r="BK4" s="17"/>
-      <c r="BL4" s="17"/>
-      <c r="BM4" s="17"/>
-      <c r="BN4" s="17"/>
-      <c r="BO4" s="17"/>
-      <c r="BP4" s="17"/>
-      <c r="BQ4" s="17"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="17"/>
-      <c r="BU4" s="17"/>
-      <c r="BV4" s="17"/>
-      <c r="BW4" s="17"/>
-      <c r="BX4" s="17"/>
-      <c r="BY4" s="17"/>
-      <c r="BZ4" s="17"/>
-      <c r="CA4" s="17"/>
-      <c r="CB4" s="17"/>
-      <c r="CC4" s="17"/>
-      <c r="CD4" s="17"/>
-      <c r="CE4" s="17"/>
-      <c r="CF4" s="17"/>
-      <c r="CG4" s="17"/>
-      <c r="CH4" s="17"/>
-      <c r="CI4" s="17"/>
-      <c r="CJ4" s="17"/>
-      <c r="CK4" s="17"/>
-      <c r="CL4" s="17"/>
-      <c r="CM4" s="17"/>
-      <c r="CN4" s="17"/>
-      <c r="CO4" s="17"/>
-      <c r="CP4" s="17"/>
-      <c r="CQ4" s="17"/>
-      <c r="CR4" s="17"/>
-      <c r="CS4" s="17"/>
-      <c r="CT4" s="17"/>
-      <c r="CU4" s="17"/>
-      <c r="CV4" s="17"/>
-      <c r="CW4" s="17"/>
-      <c r="CX4" s="17"/>
-      <c r="CY4" s="17"/>
-      <c r="CZ4" s="17"/>
-      <c r="DA4" s="17"/>
-      <c r="DB4" s="17"/>
-      <c r="DC4" s="17"/>
-      <c r="DD4" s="17"/>
-      <c r="DE4" s="17"/>
-      <c r="DF4" s="17"/>
-      <c r="DG4" s="17"/>
-      <c r="DH4" s="17"/>
-      <c r="DI4" s="17"/>
-      <c r="DJ4" s="17"/>
-      <c r="DK4" s="17"/>
-      <c r="DL4" s="17"/>
-      <c r="DM4" s="17"/>
-      <c r="DN4" s="17"/>
-      <c r="DO4" s="17"/>
-      <c r="DP4" s="17"/>
-      <c r="DQ4" s="17"/>
-      <c r="DR4" s="17"/>
-      <c r="DS4" s="17"/>
-      <c r="DT4" s="17"/>
-      <c r="DU4" s="17"/>
-      <c r="DV4" s="17"/>
-      <c r="DW4" s="17"/>
-      <c r="DX4" s="17"/>
-      <c r="DY4" s="17"/>
-      <c r="DZ4" s="17"/>
-      <c r="EA4" s="17"/>
-      <c r="EB4" s="17"/>
-      <c r="EC4" s="17"/>
-      <c r="ED4" s="17"/>
-      <c r="EE4" s="17"/>
-      <c r="EF4" s="17"/>
-      <c r="EG4" s="17"/>
-      <c r="EH4" s="17"/>
-      <c r="EI4" s="17"/>
-      <c r="EJ4" s="17"/>
-      <c r="EK4" s="17"/>
-      <c r="EL4" s="17"/>
-      <c r="EM4" s="17"/>
-      <c r="EN4" s="17"/>
-      <c r="EO4" s="17"/>
-      <c r="EP4" s="17"/>
-      <c r="EQ4" s="17"/>
-      <c r="ER4" s="17"/>
-      <c r="ES4" s="17"/>
-      <c r="ET4" s="17"/>
-      <c r="EU4" s="17"/>
-      <c r="EV4" s="17"/>
-      <c r="EW4" s="17"/>
-      <c r="EX4" s="17"/>
-      <c r="EY4" s="17"/>
-      <c r="EZ4" s="17"/>
-      <c r="FA4" s="17"/>
-      <c r="FB4" s="17"/>
-      <c r="FC4" s="17"/>
-      <c r="FD4" s="17"/>
-      <c r="FE4" s="17"/>
-      <c r="FF4" s="17"/>
-      <c r="FG4" s="17"/>
-      <c r="FH4" s="17"/>
-      <c r="FI4" s="17"/>
-      <c r="FJ4" s="17"/>
-      <c r="FK4" s="17"/>
-      <c r="FL4" s="17"/>
-      <c r="FM4" s="17"/>
-      <c r="FN4" s="17"/>
-      <c r="FO4" s="17"/>
-      <c r="FP4" s="17"/>
-      <c r="FQ4" s="17"/>
-      <c r="FR4" s="17"/>
-      <c r="FS4" s="17"/>
-      <c r="FT4" s="17"/>
-      <c r="FU4" s="17"/>
-      <c r="FV4" s="17"/>
-      <c r="FW4" s="17"/>
-      <c r="FX4" s="17"/>
-      <c r="FY4" s="17"/>
-      <c r="FZ4" s="17"/>
-      <c r="GA4" s="17"/>
-      <c r="GB4" s="17"/>
-      <c r="GC4" s="17"/>
-      <c r="GD4" s="17"/>
-      <c r="GE4" s="17"/>
-      <c r="GF4" s="17"/>
-      <c r="GG4" s="17"/>
-      <c r="GH4" s="17"/>
-      <c r="GI4" s="17"/>
-      <c r="GJ4" s="17"/>
-      <c r="GK4" s="17"/>
-      <c r="GL4" s="17"/>
-      <c r="GM4" s="17"/>
-      <c r="GN4" s="17"/>
-      <c r="GO4" s="17"/>
-      <c r="GP4" s="17"/>
-      <c r="GQ4" s="17"/>
-      <c r="GR4" s="17"/>
-      <c r="GS4" s="17"/>
-      <c r="GT4" s="17"/>
-      <c r="GU4" s="17"/>
-      <c r="GV4" s="17"/>
-      <c r="GW4" s="17"/>
-      <c r="GX4" s="17"/>
-      <c r="GY4" s="17"/>
-      <c r="GZ4" s="17"/>
-      <c r="HA4" s="17"/>
-      <c r="HB4" s="17"/>
-      <c r="HC4" s="17"/>
-      <c r="HD4" s="17"/>
-      <c r="HE4" s="17"/>
-      <c r="HF4" s="17"/>
-      <c r="HG4" s="17"/>
-      <c r="HH4" s="17"/>
-      <c r="HI4" s="17"/>
-      <c r="HJ4" s="17"/>
-      <c r="HK4" s="17"/>
-      <c r="HL4" s="17"/>
-      <c r="HM4" s="17"/>
-      <c r="HN4" s="17"/>
-      <c r="HO4" s="17"/>
-      <c r="HP4" s="17"/>
-      <c r="HQ4" s="17"/>
-      <c r="HR4" s="17"/>
-      <c r="HS4" s="17"/>
-      <c r="HT4" s="17"/>
-      <c r="HU4" s="17"/>
-      <c r="HV4" s="17"/>
-      <c r="HW4" s="17"/>
-      <c r="HX4" s="17"/>
-      <c r="HY4" s="17"/>
-      <c r="HZ4" s="17"/>
-      <c r="IA4" s="17"/>
-      <c r="IB4" s="17"/>
-      <c r="IC4" s="17"/>
-      <c r="ID4" s="17"/>
-      <c r="IE4" s="17"/>
-      <c r="IF4" s="17"/>
-      <c r="IG4" s="17"/>
-      <c r="IH4" s="17"/>
-      <c r="II4" s="17"/>
-      <c r="IJ4" s="17"/>
-      <c r="IK4" s="17"/>
-      <c r="IL4" s="17"/>
-      <c r="IM4" s="17"/>
-      <c r="IN4" s="17"/>
-      <c r="IO4" s="17"/>
-      <c r="IP4" s="17"/>
-      <c r="IQ4" s="17"/>
-      <c r="IR4" s="17"/>
-      <c r="IS4" s="17"/>
-      <c r="IT4" s="17"/>
-      <c r="IU4" s="17"/>
-      <c r="IV4" s="17"/>
-      <c r="IW4" s="17"/>
-      <c r="IX4" s="17"/>
-      <c r="IY4" s="17"/>
-      <c r="IZ4" s="17"/>
-      <c r="JA4" s="17"/>
-      <c r="JB4" s="17"/>
-      <c r="JC4" s="17"/>
-      <c r="JD4" s="17"/>
-      <c r="JE4" s="17"/>
-      <c r="JF4" s="17"/>
-      <c r="JG4" s="17"/>
-      <c r="JH4" s="17"/>
-      <c r="JI4" s="17"/>
-      <c r="JJ4" s="17"/>
-      <c r="JK4" s="17"/>
-      <c r="JL4" s="17"/>
-      <c r="JM4" s="17"/>
-      <c r="JN4" s="17"/>
-      <c r="JO4" s="17"/>
-      <c r="JP4" s="17"/>
-      <c r="JQ4" s="17"/>
-      <c r="JR4" s="17"/>
-      <c r="JS4" s="17"/>
-      <c r="JT4" s="17"/>
-      <c r="JU4" s="17"/>
-      <c r="JV4" s="17"/>
-      <c r="JW4" s="17"/>
-      <c r="JX4" s="17"/>
-      <c r="JY4" s="17"/>
-      <c r="JZ4" s="17"/>
-      <c r="KA4" s="17"/>
-      <c r="KB4" s="17"/>
-      <c r="KC4" s="17"/>
-      <c r="KD4" s="17"/>
-      <c r="KE4" s="17"/>
-      <c r="KF4" s="17"/>
-      <c r="KG4" s="17"/>
-      <c r="KH4" s="17"/>
-      <c r="KI4" s="17"/>
-      <c r="KJ4" s="17"/>
-      <c r="KK4" s="17"/>
-      <c r="KL4" s="17"/>
-      <c r="KM4" s="17"/>
-      <c r="KN4" s="17"/>
-      <c r="KO4" s="17"/>
-      <c r="KP4" s="17"/>
-      <c r="KQ4" s="17"/>
-      <c r="KR4" s="17"/>
-      <c r="KS4" s="17"/>
-      <c r="KT4" s="17"/>
-      <c r="KU4" s="17"/>
-      <c r="KV4" s="17"/>
-      <c r="KW4" s="17"/>
-      <c r="KX4" s="17"/>
-      <c r="KY4" s="17"/>
-      <c r="KZ4" s="17"/>
-      <c r="LA4" s="17"/>
-      <c r="LB4" s="17"/>
-      <c r="LC4" s="17"/>
-      <c r="LD4" s="17"/>
-      <c r="LE4" s="17"/>
-      <c r="LF4" s="17"/>
-      <c r="LG4" s="17"/>
-      <c r="LH4" s="17"/>
-      <c r="LI4" s="17"/>
-      <c r="LJ4" s="17"/>
-      <c r="LK4" s="17"/>
-      <c r="LL4" s="17"/>
-      <c r="LM4" s="17"/>
-      <c r="LN4" s="17"/>
-      <c r="LO4" s="17"/>
-      <c r="LP4" s="17"/>
-      <c r="LQ4" s="17"/>
-      <c r="LR4" s="17"/>
-      <c r="LS4" s="17"/>
-      <c r="LT4" s="17"/>
-      <c r="LU4" s="17"/>
-      <c r="LV4" s="17"/>
-      <c r="LW4" s="17"/>
-      <c r="LX4" s="17"/>
-      <c r="LY4" s="17"/>
-      <c r="LZ4" s="17"/>
-      <c r="MA4" s="17"/>
-      <c r="MB4" s="17"/>
-      <c r="MC4" s="17"/>
-      <c r="MD4" s="17"/>
-      <c r="ME4" s="17"/>
-      <c r="MF4" s="17"/>
-      <c r="MG4" s="17"/>
-      <c r="MH4" s="17"/>
-      <c r="MI4" s="17"/>
-      <c r="MJ4" s="17"/>
-      <c r="MK4" s="17"/>
-      <c r="ML4" s="17"/>
-      <c r="MM4" s="17"/>
-      <c r="MN4" s="17"/>
-      <c r="MO4" s="17"/>
-      <c r="MP4" s="17"/>
-      <c r="MQ4" s="17"/>
-      <c r="MR4" s="17"/>
-      <c r="MS4" s="17"/>
-      <c r="MT4" s="17"/>
-      <c r="MU4" s="17"/>
-      <c r="MV4" s="17"/>
-      <c r="MW4" s="17"/>
-      <c r="MX4" s="17"/>
-      <c r="MY4" s="17"/>
-      <c r="MZ4" s="17"/>
-      <c r="NA4" s="17"/>
-      <c r="NB4" s="17"/>
-      <c r="NC4" s="17"/>
-      <c r="ND4" s="17"/>
-      <c r="NE4" s="17"/>
-      <c r="NF4" s="17"/>
-      <c r="NG4" s="17"/>
-      <c r="NH4" s="17"/>
-      <c r="NI4" s="17"/>
-      <c r="NJ4" s="17"/>
-      <c r="NK4" s="17"/>
-      <c r="NL4" s="17"/>
-      <c r="NM4" s="17"/>
-      <c r="NN4" s="17"/>
-      <c r="NO4" s="17"/>
-      <c r="NP4" s="17"/>
-      <c r="NQ4" s="17"/>
-      <c r="NR4" s="17"/>
-      <c r="NS4" s="17"/>
-      <c r="NT4" s="17"/>
-      <c r="NU4" s="17"/>
-      <c r="NV4" s="17"/>
-      <c r="NW4" s="17"/>
-      <c r="NX4" s="17"/>
-      <c r="NY4" s="17"/>
-      <c r="NZ4" s="17"/>
-      <c r="OA4" s="17"/>
-      <c r="OB4" s="17"/>
-      <c r="OC4" s="17"/>
-      <c r="OD4" s="17"/>
-      <c r="OE4" s="17"/>
-      <c r="OF4" s="17"/>
-      <c r="OG4" s="17"/>
-      <c r="OH4" s="17"/>
-      <c r="OI4" s="17"/>
-      <c r="OJ4" s="17"/>
-      <c r="OK4" s="17"/>
-      <c r="OL4" s="17"/>
-      <c r="OM4" s="17"/>
-      <c r="ON4" s="17"/>
-      <c r="OO4" s="17"/>
-      <c r="OP4" s="17"/>
-      <c r="OQ4" s="17"/>
-      <c r="OR4" s="17"/>
-      <c r="OS4" s="17"/>
-      <c r="OT4" s="17"/>
-      <c r="OU4" s="17"/>
-      <c r="OV4" s="17"/>
-      <c r="OW4" s="17"/>
-      <c r="OX4" s="17"/>
-      <c r="OY4" s="17"/>
-      <c r="OZ4" s="17"/>
-      <c r="PA4" s="17"/>
-      <c r="PB4" s="17"/>
-      <c r="PC4" s="17"/>
-      <c r="PD4" s="17"/>
-      <c r="PE4" s="17"/>
-      <c r="PF4" s="17"/>
-      <c r="PG4" s="17"/>
-      <c r="PH4" s="17"/>
-      <c r="PI4" s="17"/>
-      <c r="PJ4" s="17"/>
-      <c r="PK4" s="17"/>
-      <c r="PL4" s="17"/>
-      <c r="PM4" s="17"/>
-      <c r="PN4" s="17"/>
-      <c r="PO4" s="17"/>
-      <c r="PP4" s="17"/>
-      <c r="PQ4" s="17"/>
-      <c r="PR4" s="17"/>
-      <c r="PS4" s="17"/>
-      <c r="PT4" s="17"/>
-      <c r="PU4" s="17"/>
-      <c r="PV4" s="17"/>
-      <c r="PW4" s="17"/>
-      <c r="PX4" s="17"/>
-      <c r="PY4" s="17"/>
-      <c r="PZ4" s="17"/>
-      <c r="QA4" s="17"/>
-      <c r="QB4" s="17"/>
-      <c r="QC4" s="17"/>
-      <c r="QD4" s="17"/>
-      <c r="QE4" s="17"/>
-      <c r="QF4" s="17"/>
-      <c r="QG4" s="17"/>
-      <c r="QH4" s="17"/>
-      <c r="QI4" s="17"/>
-      <c r="QJ4" s="17"/>
-      <c r="QK4" s="17"/>
-      <c r="QL4" s="17"/>
-      <c r="QM4" s="17"/>
-      <c r="QN4" s="17"/>
-      <c r="QO4" s="17"/>
-      <c r="QP4" s="17"/>
-      <c r="QQ4" s="17"/>
-      <c r="QR4" s="17"/>
-      <c r="QS4" s="17"/>
-      <c r="QT4" s="17"/>
-      <c r="QU4" s="17"/>
-      <c r="QV4" s="17"/>
-      <c r="QW4" s="17"/>
-      <c r="QX4" s="17"/>
-      <c r="QY4" s="17"/>
-      <c r="QZ4" s="17"/>
-      <c r="RA4" s="17"/>
-      <c r="RB4" s="17"/>
-      <c r="RC4" s="17"/>
-      <c r="RD4" s="17"/>
-      <c r="RE4" s="17"/>
-      <c r="RF4" s="17"/>
-      <c r="RG4" s="17"/>
-      <c r="RH4" s="17"/>
-      <c r="RI4" s="17"/>
-      <c r="RJ4" s="17"/>
-      <c r="RK4" s="17"/>
-      <c r="RL4" s="17"/>
-      <c r="RM4" s="17"/>
-      <c r="RN4" s="17"/>
-      <c r="RO4" s="17"/>
-      <c r="RP4" s="17"/>
-      <c r="RQ4" s="17"/>
-      <c r="RR4" s="17"/>
-      <c r="RS4" s="17"/>
-      <c r="RT4" s="17"/>
-    </row>
-    <row r="5" spans="1:488" s="9" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="16"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="16"/>
+      <c r="BJ4" s="16"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BO4" s="16"/>
+      <c r="BP4" s="16"/>
+      <c r="BQ4" s="16"/>
+      <c r="BR4" s="16"/>
+      <c r="BS4" s="16"/>
+      <c r="BT4" s="16"/>
+      <c r="BU4" s="16"/>
+      <c r="BV4" s="16"/>
+      <c r="BW4" s="16"/>
+      <c r="BX4" s="16"/>
+      <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="16"/>
+      <c r="CC4" s="16"/>
+      <c r="CD4" s="16"/>
+      <c r="CE4" s="16"/>
+      <c r="CF4" s="16"/>
+      <c r="CG4" s="16"/>
+      <c r="CH4" s="16"/>
+      <c r="CI4" s="16"/>
+      <c r="CJ4" s="16"/>
+      <c r="CK4" s="16"/>
+      <c r="CL4" s="16"/>
+      <c r="CM4" s="16"/>
+      <c r="CN4" s="16"/>
+      <c r="CO4" s="16"/>
+      <c r="CP4" s="16"/>
+      <c r="CQ4" s="16"/>
+      <c r="CR4" s="16"/>
+      <c r="CS4" s="16"/>
+      <c r="CT4" s="16"/>
+      <c r="CU4" s="16"/>
+      <c r="CV4" s="16"/>
+      <c r="CW4" s="16"/>
+      <c r="CX4" s="16"/>
+      <c r="CY4" s="16"/>
+      <c r="CZ4" s="16"/>
+      <c r="DA4" s="16"/>
+      <c r="DB4" s="16"/>
+      <c r="DC4" s="16"/>
+      <c r="DD4" s="16"/>
+      <c r="DE4" s="16"/>
+      <c r="DF4" s="16"/>
+      <c r="DG4" s="16"/>
+      <c r="DH4" s="16"/>
+      <c r="DI4" s="16"/>
+      <c r="DJ4" s="16"/>
+      <c r="DK4" s="16"/>
+      <c r="DL4" s="16"/>
+      <c r="DM4" s="16"/>
+      <c r="DN4" s="16"/>
+      <c r="DO4" s="16"/>
+      <c r="DP4" s="16"/>
+      <c r="DQ4" s="16"/>
+      <c r="DR4" s="16"/>
+      <c r="DS4" s="16"/>
+      <c r="DT4" s="16"/>
+      <c r="DU4" s="16"/>
+      <c r="DV4" s="16"/>
+      <c r="DW4" s="16"/>
+      <c r="DX4" s="16"/>
+      <c r="DY4" s="16"/>
+      <c r="DZ4" s="16"/>
+      <c r="EA4" s="16"/>
+      <c r="EB4" s="16"/>
+      <c r="EC4" s="16"/>
+      <c r="ED4" s="16"/>
+      <c r="EE4" s="16"/>
+      <c r="EF4" s="16"/>
+      <c r="EG4" s="16"/>
+      <c r="EH4" s="16"/>
+      <c r="EI4" s="16"/>
+      <c r="EJ4" s="16"/>
+      <c r="EK4" s="16"/>
+      <c r="EL4" s="16"/>
+      <c r="EM4" s="16"/>
+      <c r="EN4" s="16"/>
+      <c r="EO4" s="16"/>
+      <c r="EP4" s="16"/>
+      <c r="EQ4" s="16"/>
+      <c r="ER4" s="16"/>
+      <c r="ES4" s="16"/>
+      <c r="ET4" s="16"/>
+      <c r="EU4" s="16"/>
+      <c r="EV4" s="16"/>
+      <c r="EW4" s="16"/>
+      <c r="EX4" s="16"/>
+      <c r="EY4" s="16"/>
+      <c r="EZ4" s="16"/>
+      <c r="FA4" s="16"/>
+      <c r="FB4" s="16"/>
+      <c r="FC4" s="16"/>
+      <c r="FD4" s="16"/>
+      <c r="FE4" s="16"/>
+      <c r="FF4" s="16"/>
+      <c r="FG4" s="16"/>
+      <c r="FH4" s="16"/>
+      <c r="FI4" s="16"/>
+      <c r="FJ4" s="16"/>
+      <c r="FK4" s="16"/>
+      <c r="FL4" s="16"/>
+      <c r="FM4" s="16"/>
+      <c r="FN4" s="16"/>
+      <c r="FO4" s="16"/>
+      <c r="FP4" s="16"/>
+      <c r="FQ4" s="16"/>
+      <c r="FR4" s="16"/>
+      <c r="FS4" s="16"/>
+      <c r="FT4" s="16"/>
+      <c r="FU4" s="16"/>
+      <c r="FV4" s="16"/>
+      <c r="FW4" s="16"/>
+      <c r="FX4" s="16"/>
+      <c r="FY4" s="16"/>
+      <c r="FZ4" s="16"/>
+      <c r="GA4" s="16"/>
+      <c r="GB4" s="16"/>
+      <c r="GC4" s="16"/>
+      <c r="GD4" s="16"/>
+      <c r="GE4" s="16"/>
+      <c r="GF4" s="16"/>
+      <c r="GG4" s="16"/>
+      <c r="GH4" s="16"/>
+      <c r="GI4" s="16"/>
+      <c r="GJ4" s="16"/>
+      <c r="GK4" s="16"/>
+      <c r="GL4" s="16"/>
+      <c r="GM4" s="16"/>
+      <c r="GN4" s="16"/>
+      <c r="GO4" s="16"/>
+      <c r="GP4" s="16"/>
+      <c r="GQ4" s="16"/>
+      <c r="GR4" s="16"/>
+      <c r="GS4" s="16"/>
+      <c r="GT4" s="16"/>
+      <c r="GU4" s="16"/>
+      <c r="GV4" s="16"/>
+      <c r="GW4" s="16"/>
+      <c r="GX4" s="16"/>
+      <c r="GY4" s="16"/>
+      <c r="GZ4" s="16"/>
+      <c r="HA4" s="16"/>
+      <c r="HB4" s="16"/>
+      <c r="HC4" s="16"/>
+      <c r="HD4" s="16"/>
+      <c r="HE4" s="16"/>
+      <c r="HF4" s="16"/>
+      <c r="HG4" s="16"/>
+      <c r="HH4" s="16"/>
+      <c r="HI4" s="16"/>
+      <c r="HJ4" s="16"/>
+      <c r="HK4" s="16"/>
+      <c r="HL4" s="16"/>
+      <c r="HM4" s="16"/>
+      <c r="HN4" s="16"/>
+      <c r="HO4" s="16"/>
+      <c r="HP4" s="16"/>
+      <c r="HQ4" s="16"/>
+      <c r="HR4" s="16"/>
+      <c r="HS4" s="16"/>
+      <c r="HT4" s="16"/>
+      <c r="HU4" s="16"/>
+      <c r="HV4" s="16"/>
+      <c r="HW4" s="16"/>
+      <c r="HX4" s="16"/>
+      <c r="HY4" s="16"/>
+      <c r="HZ4" s="16"/>
+      <c r="IA4" s="16"/>
+      <c r="IB4" s="16"/>
+      <c r="IC4" s="16"/>
+      <c r="ID4" s="16"/>
+      <c r="IE4" s="16"/>
+      <c r="IF4" s="16"/>
+      <c r="IG4" s="16"/>
+      <c r="IH4" s="16"/>
+      <c r="II4" s="16"/>
+      <c r="IJ4" s="16"/>
+      <c r="IK4" s="16"/>
+      <c r="IL4" s="16"/>
+      <c r="IM4" s="16"/>
+      <c r="IN4" s="16"/>
+      <c r="IO4" s="16"/>
+      <c r="IP4" s="16"/>
+      <c r="IQ4" s="16"/>
+      <c r="IR4" s="16"/>
+      <c r="IS4" s="16"/>
+      <c r="IT4" s="16"/>
+      <c r="IU4" s="16"/>
+      <c r="IV4" s="16"/>
+      <c r="IW4" s="16"/>
+      <c r="IX4" s="16"/>
+      <c r="IY4" s="16"/>
+      <c r="IZ4" s="16"/>
+      <c r="JA4" s="16"/>
+      <c r="JB4" s="16"/>
+      <c r="JC4" s="16"/>
+      <c r="JD4" s="16"/>
+      <c r="JE4" s="16"/>
+      <c r="JF4" s="16"/>
+      <c r="JG4" s="16"/>
+      <c r="JH4" s="16"/>
+      <c r="JI4" s="16"/>
+      <c r="JJ4" s="16"/>
+      <c r="JK4" s="16"/>
+      <c r="JL4" s="16"/>
+      <c r="JM4" s="16"/>
+      <c r="JN4" s="16"/>
+      <c r="JO4" s="16"/>
+      <c r="JP4" s="16"/>
+      <c r="JQ4" s="16"/>
+      <c r="JR4" s="16"/>
+      <c r="JS4" s="16"/>
+      <c r="JT4" s="16"/>
+      <c r="JU4" s="16"/>
+      <c r="JV4" s="16"/>
+      <c r="JW4" s="16"/>
+      <c r="JX4" s="16"/>
+      <c r="JY4" s="16"/>
+      <c r="JZ4" s="16"/>
+      <c r="KA4" s="16"/>
+      <c r="KB4" s="16"/>
+      <c r="KC4" s="16"/>
+      <c r="KD4" s="16"/>
+      <c r="KE4" s="16"/>
+      <c r="KF4" s="16"/>
+      <c r="KG4" s="16"/>
+      <c r="KH4" s="16"/>
+      <c r="KI4" s="16"/>
+      <c r="KJ4" s="16"/>
+      <c r="KK4" s="16"/>
+      <c r="KL4" s="16"/>
+      <c r="KM4" s="16"/>
+      <c r="KN4" s="16"/>
+      <c r="KO4" s="16"/>
+      <c r="KP4" s="16"/>
+      <c r="KQ4" s="16"/>
+      <c r="KR4" s="16"/>
+      <c r="KS4" s="16"/>
+      <c r="KT4" s="16"/>
+      <c r="KU4" s="16"/>
+      <c r="KV4" s="16"/>
+      <c r="KW4" s="16"/>
+      <c r="KX4" s="16"/>
+      <c r="KY4" s="16"/>
+      <c r="KZ4" s="16"/>
+      <c r="LA4" s="16"/>
+      <c r="LB4" s="16"/>
+      <c r="LC4" s="16"/>
+      <c r="LD4" s="16"/>
+      <c r="LE4" s="16"/>
+      <c r="LF4" s="16"/>
+      <c r="LG4" s="16"/>
+      <c r="LH4" s="16"/>
+      <c r="LI4" s="16"/>
+      <c r="LJ4" s="16"/>
+      <c r="LK4" s="16"/>
+      <c r="LL4" s="16"/>
+      <c r="LM4" s="16"/>
+      <c r="LN4" s="16"/>
+      <c r="LO4" s="16"/>
+      <c r="LP4" s="16"/>
+      <c r="LQ4" s="16"/>
+      <c r="LR4" s="16"/>
+      <c r="LS4" s="16"/>
+      <c r="LT4" s="16"/>
+      <c r="LU4" s="16"/>
+      <c r="LV4" s="16"/>
+      <c r="LW4" s="16"/>
+      <c r="LX4" s="16"/>
+      <c r="LY4" s="16"/>
+      <c r="LZ4" s="16"/>
+      <c r="MA4" s="16"/>
+      <c r="MB4" s="16"/>
+      <c r="MC4" s="16"/>
+      <c r="MD4" s="16"/>
+      <c r="ME4" s="16"/>
+      <c r="MF4" s="16"/>
+      <c r="MG4" s="16"/>
+      <c r="MH4" s="16"/>
+      <c r="MI4" s="16"/>
+      <c r="MJ4" s="16"/>
+      <c r="MK4" s="16"/>
+      <c r="ML4" s="16"/>
+      <c r="MM4" s="16"/>
+      <c r="MN4" s="16"/>
+      <c r="MO4" s="16"/>
+      <c r="MP4" s="16"/>
+      <c r="MQ4" s="16"/>
+      <c r="MR4" s="16"/>
+      <c r="MS4" s="16"/>
+      <c r="MT4" s="16"/>
+      <c r="MU4" s="16"/>
+      <c r="MV4" s="16"/>
+      <c r="MW4" s="16"/>
+      <c r="MX4" s="16"/>
+      <c r="MY4" s="16"/>
+      <c r="MZ4" s="16"/>
+      <c r="NA4" s="16"/>
+      <c r="NB4" s="16"/>
+      <c r="NC4" s="16"/>
+      <c r="ND4" s="16"/>
+      <c r="NE4" s="16"/>
+      <c r="NF4" s="16"/>
+      <c r="NG4" s="16"/>
+      <c r="NH4" s="16"/>
+      <c r="NI4" s="16"/>
+      <c r="NJ4" s="16"/>
+      <c r="NK4" s="16"/>
+      <c r="NL4" s="16"/>
+      <c r="NM4" s="16"/>
+      <c r="NN4" s="16"/>
+      <c r="NO4" s="16"/>
+      <c r="NP4" s="16"/>
+      <c r="NQ4" s="16"/>
+      <c r="NR4" s="16"/>
+      <c r="NS4" s="16"/>
+      <c r="NT4" s="16"/>
+      <c r="NU4" s="16"/>
+      <c r="NV4" s="16"/>
+      <c r="NW4" s="16"/>
+      <c r="NX4" s="16"/>
+      <c r="NY4" s="16"/>
+      <c r="NZ4" s="16"/>
+      <c r="OA4" s="16"/>
+      <c r="OB4" s="16"/>
+      <c r="OC4" s="16"/>
+      <c r="OD4" s="16"/>
+      <c r="OE4" s="16"/>
+      <c r="OF4" s="16"/>
+      <c r="OG4" s="16"/>
+      <c r="OH4" s="16"/>
+      <c r="OI4" s="16"/>
+      <c r="OJ4" s="16"/>
+      <c r="OK4" s="16"/>
+      <c r="OL4" s="16"/>
+      <c r="OM4" s="16"/>
+      <c r="ON4" s="16"/>
+      <c r="OO4" s="16"/>
+      <c r="OP4" s="16"/>
+      <c r="OQ4" s="16"/>
+      <c r="OR4" s="16"/>
+      <c r="OS4" s="16"/>
+      <c r="OT4" s="16"/>
+      <c r="OU4" s="16"/>
+      <c r="OV4" s="16"/>
+      <c r="OW4" s="16"/>
+      <c r="OX4" s="16"/>
+      <c r="OY4" s="16"/>
+      <c r="OZ4" s="16"/>
+      <c r="PA4" s="16"/>
+      <c r="PB4" s="16"/>
+      <c r="PC4" s="16"/>
+      <c r="PD4" s="16"/>
+      <c r="PE4" s="16"/>
+      <c r="PF4" s="16"/>
+      <c r="PG4" s="16"/>
+      <c r="PH4" s="16"/>
+      <c r="PI4" s="16"/>
+      <c r="PJ4" s="16"/>
+      <c r="PK4" s="16"/>
+      <c r="PL4" s="16"/>
+      <c r="PM4" s="16"/>
+      <c r="PN4" s="16"/>
+      <c r="PO4" s="16"/>
+      <c r="PP4" s="16"/>
+      <c r="PQ4" s="16"/>
+      <c r="PR4" s="16"/>
+      <c r="PS4" s="16"/>
+      <c r="PT4" s="16"/>
+      <c r="PU4" s="16"/>
+      <c r="PV4" s="16"/>
+      <c r="PW4" s="16"/>
+      <c r="PX4" s="16"/>
+      <c r="PY4" s="16"/>
+      <c r="PZ4" s="16"/>
+      <c r="QA4" s="16"/>
+      <c r="QB4" s="16"/>
+      <c r="QC4" s="16"/>
+      <c r="QD4" s="16"/>
+      <c r="QE4" s="16"/>
+      <c r="QF4" s="16"/>
+      <c r="QG4" s="16"/>
+      <c r="QH4" s="16"/>
+      <c r="QI4" s="16"/>
+      <c r="QJ4" s="16"/>
+      <c r="QK4" s="16"/>
+      <c r="QL4" s="16"/>
+      <c r="QM4" s="16"/>
+      <c r="QN4" s="16"/>
+      <c r="QO4" s="16"/>
+      <c r="QP4" s="16"/>
+      <c r="QQ4" s="16"/>
+      <c r="QR4" s="16"/>
+      <c r="QS4" s="16"/>
+      <c r="QT4" s="16"/>
+      <c r="QU4" s="16"/>
+      <c r="QV4" s="16"/>
+      <c r="QW4" s="16"/>
+      <c r="QX4" s="16"/>
+      <c r="QY4" s="16"/>
+      <c r="QZ4" s="16"/>
+      <c r="RA4" s="16"/>
+      <c r="RB4" s="16"/>
+      <c r="RC4" s="16"/>
+      <c r="RD4" s="16"/>
+      <c r="RE4" s="16"/>
+      <c r="RF4" s="16"/>
+      <c r="RG4" s="16"/>
+      <c r="RH4" s="16"/>
+      <c r="RI4" s="16"/>
+      <c r="RJ4" s="16"/>
+      <c r="RK4" s="16"/>
+      <c r="RL4" s="16"/>
+      <c r="RM4" s="16"/>
+      <c r="RN4" s="16"/>
+      <c r="RO4" s="16"/>
+      <c r="RP4" s="16"/>
+      <c r="RQ4" s="16"/>
+      <c r="RR4" s="16"/>
+      <c r="RS4" s="16"/>
+      <c r="RT4" s="16"/>
+    </row>
+    <row r="5" spans="1:488" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2270,7 +2271,6 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="4"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2299,967 +2299,514 @@
       <c r="AI5" s="4">
         <v>0</v>
       </c>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4"/>
-      <c r="BG5" s="4"/>
-      <c r="BH5" s="4"/>
-      <c r="BI5" s="4"/>
-      <c r="BJ5" s="4"/>
-      <c r="BK5" s="4"/>
-      <c r="BL5" s="4"/>
-      <c r="BM5" s="4"/>
-      <c r="BN5" s="4"/>
-      <c r="BO5" s="4"/>
-      <c r="BP5" s="4"/>
-      <c r="BQ5" s="4"/>
-      <c r="BR5" s="4"/>
-      <c r="BS5" s="4"/>
-      <c r="BT5" s="4"/>
-      <c r="BU5" s="4"/>
-      <c r="BV5" s="4"/>
-      <c r="BW5" s="4"/>
-      <c r="BX5" s="4"/>
-      <c r="BY5" s="4"/>
-      <c r="BZ5" s="4"/>
-      <c r="CA5" s="4"/>
-      <c r="CB5" s="4"/>
-      <c r="CC5" s="4"/>
-      <c r="CD5" s="4"/>
-      <c r="CE5" s="4"/>
-      <c r="CF5" s="4"/>
-      <c r="CG5" s="4"/>
-      <c r="CH5" s="4"/>
-      <c r="CI5" s="4"/>
-      <c r="CJ5" s="4"/>
-      <c r="CK5" s="4"/>
-      <c r="CL5" s="4"/>
-      <c r="CM5" s="4"/>
-      <c r="CN5" s="4"/>
-      <c r="CO5" s="4"/>
-      <c r="CP5" s="4"/>
-      <c r="CQ5" s="4"/>
-      <c r="CR5" s="4"/>
-      <c r="CS5" s="4"/>
-      <c r="CT5" s="4"/>
-      <c r="CU5" s="4"/>
-      <c r="CV5" s="4"/>
-      <c r="CW5" s="4"/>
-      <c r="CX5" s="4"/>
-      <c r="CY5" s="4"/>
-      <c r="CZ5" s="4"/>
-      <c r="DA5" s="4"/>
-      <c r="DB5" s="4"/>
-      <c r="DC5" s="4"/>
-      <c r="DD5" s="4"/>
-      <c r="DE5" s="4"/>
-      <c r="DF5" s="4"/>
-      <c r="DG5" s="4"/>
-      <c r="DH5" s="4"/>
-      <c r="DI5" s="4"/>
-      <c r="DJ5" s="4"/>
-      <c r="DK5" s="4"/>
-      <c r="DL5" s="4"/>
-      <c r="DM5" s="4"/>
-      <c r="DN5" s="4"/>
-      <c r="DO5" s="4"/>
-      <c r="DP5" s="4"/>
-      <c r="DQ5" s="4"/>
-      <c r="DR5" s="4"/>
-      <c r="DS5" s="4"/>
-      <c r="DT5" s="4"/>
-      <c r="DU5" s="4"/>
-      <c r="DV5" s="4"/>
-      <c r="DW5" s="4"/>
-      <c r="DX5" s="4"/>
-      <c r="DY5" s="4"/>
-      <c r="DZ5" s="4"/>
-      <c r="EA5" s="4"/>
-      <c r="EB5" s="4"/>
-      <c r="EC5" s="4"/>
-      <c r="ED5" s="4"/>
-      <c r="EE5" s="4"/>
-      <c r="EF5" s="4"/>
-      <c r="EG5" s="4"/>
-      <c r="EH5" s="4"/>
-      <c r="EI5" s="4"/>
-      <c r="EJ5" s="4"/>
-      <c r="EK5" s="4"/>
-      <c r="EL5" s="4"/>
-      <c r="EM5" s="4"/>
-      <c r="EN5" s="4"/>
-      <c r="EO5" s="4"/>
-      <c r="EP5" s="4"/>
-      <c r="EQ5" s="4"/>
-      <c r="ER5" s="4"/>
-      <c r="ES5" s="4"/>
-      <c r="ET5" s="4"/>
-      <c r="EU5" s="4"/>
-      <c r="EV5" s="4"/>
-      <c r="EW5" s="4"/>
-      <c r="EX5" s="4"/>
-      <c r="EY5" s="4"/>
-      <c r="EZ5" s="4"/>
-      <c r="FA5" s="4"/>
-      <c r="FB5" s="4"/>
-      <c r="FC5" s="4"/>
-      <c r="FD5" s="4"/>
-      <c r="FE5" s="4"/>
-      <c r="FF5" s="4"/>
-      <c r="FG5" s="4"/>
-      <c r="FH5" s="4"/>
-      <c r="FI5" s="4"/>
-      <c r="FJ5" s="4"/>
-      <c r="FK5" s="4"/>
-      <c r="FL5" s="4"/>
-      <c r="FM5" s="4"/>
-      <c r="FN5" s="4"/>
-      <c r="FO5" s="4"/>
-      <c r="FP5" s="4"/>
-      <c r="FQ5" s="4"/>
-      <c r="FR5" s="4"/>
-      <c r="FS5" s="4"/>
-      <c r="FT5" s="4"/>
-      <c r="FU5" s="4"/>
-      <c r="FV5" s="4"/>
-      <c r="FW5" s="4"/>
-      <c r="FX5" s="4"/>
-      <c r="FY5" s="4"/>
-      <c r="FZ5" s="4"/>
-      <c r="GA5" s="4"/>
-      <c r="GB5" s="4"/>
-      <c r="GC5" s="4"/>
-      <c r="GD5" s="4"/>
-      <c r="GE5" s="4"/>
-      <c r="GF5" s="4"/>
-      <c r="GG5" s="4"/>
-      <c r="GH5" s="4"/>
-      <c r="GI5" s="4"/>
-      <c r="GJ5" s="4"/>
-      <c r="GK5" s="4"/>
-      <c r="GL5" s="4"/>
-      <c r="GM5" s="4"/>
-      <c r="GN5" s="4"/>
-      <c r="GO5" s="4"/>
-      <c r="GP5" s="4"/>
-      <c r="GQ5" s="4"/>
-      <c r="GR5" s="4"/>
-      <c r="GS5" s="4"/>
-      <c r="GT5" s="4"/>
-      <c r="GU5" s="4"/>
-      <c r="GV5" s="4"/>
-      <c r="GW5" s="4"/>
-      <c r="GX5" s="4"/>
-      <c r="GY5" s="4"/>
-      <c r="GZ5" s="4"/>
-      <c r="HA5" s="4"/>
-      <c r="HB5" s="4"/>
-      <c r="HC5" s="4"/>
-      <c r="HD5" s="4"/>
-      <c r="HE5" s="4"/>
-      <c r="HF5" s="4"/>
-      <c r="HG5" s="4"/>
-      <c r="HH5" s="4"/>
-      <c r="HI5" s="4"/>
-      <c r="HJ5" s="4"/>
-      <c r="HK5" s="4"/>
-      <c r="HL5" s="4"/>
-      <c r="HM5" s="4"/>
-      <c r="HN5" s="4"/>
-      <c r="HO5" s="4"/>
-      <c r="HP5" s="4"/>
-      <c r="HQ5" s="4"/>
-      <c r="HR5" s="4"/>
-      <c r="HS5" s="4"/>
-      <c r="HT5" s="4"/>
-      <c r="HU5" s="4"/>
-      <c r="HV5" s="4"/>
-      <c r="HW5" s="4"/>
-      <c r="HX5" s="4"/>
-      <c r="HY5" s="4"/>
-      <c r="HZ5" s="4"/>
-      <c r="IA5" s="4"/>
-      <c r="IB5" s="4"/>
-      <c r="IC5" s="4"/>
-      <c r="ID5" s="4"/>
-      <c r="IE5" s="4"/>
-      <c r="IF5" s="4"/>
-      <c r="IG5" s="4"/>
-      <c r="IH5" s="4"/>
-      <c r="II5" s="4"/>
-      <c r="IJ5" s="4"/>
-      <c r="IK5" s="4"/>
-      <c r="IL5" s="4"/>
-      <c r="IM5" s="4"/>
-      <c r="IN5" s="4"/>
-      <c r="IO5" s="4"/>
-      <c r="IP5" s="4"/>
-      <c r="IQ5" s="4"/>
-      <c r="IR5" s="4"/>
-      <c r="IS5" s="4"/>
-      <c r="IT5" s="4"/>
-      <c r="IU5" s="4"/>
-      <c r="IV5" s="4"/>
-      <c r="IW5" s="4"/>
-      <c r="IX5" s="4"/>
-      <c r="IY5" s="4"/>
-      <c r="IZ5" s="4"/>
-      <c r="JA5" s="4"/>
-      <c r="JB5" s="4"/>
-      <c r="JC5" s="4"/>
-      <c r="JD5" s="4"/>
-      <c r="JE5" s="4"/>
-      <c r="JF5" s="4"/>
-      <c r="JG5" s="4"/>
-      <c r="JH5" s="4"/>
-      <c r="JI5" s="4"/>
-      <c r="JJ5" s="4"/>
-      <c r="JK5" s="4"/>
-      <c r="JL5" s="4"/>
-      <c r="JM5" s="4"/>
-      <c r="JN5" s="4"/>
-      <c r="JO5" s="4"/>
-      <c r="JP5" s="4"/>
-      <c r="JQ5" s="4"/>
-      <c r="JR5" s="4"/>
-      <c r="JS5" s="4"/>
-      <c r="JT5" s="4"/>
-      <c r="JU5" s="4"/>
-      <c r="JV5" s="4"/>
-      <c r="JW5" s="4"/>
-      <c r="JX5" s="4"/>
-      <c r="JY5" s="4"/>
-      <c r="JZ5" s="4"/>
-      <c r="KA5" s="4"/>
-      <c r="KB5" s="4"/>
-      <c r="KC5" s="4"/>
-      <c r="KD5" s="4"/>
-      <c r="KE5" s="4"/>
-      <c r="KF5" s="4"/>
-      <c r="KG5" s="4"/>
-      <c r="KH5" s="4"/>
-      <c r="KI5" s="4"/>
-      <c r="KJ5" s="4"/>
-      <c r="KK5" s="4"/>
-      <c r="KL5" s="4"/>
-      <c r="KM5" s="4"/>
-      <c r="KN5" s="4"/>
-      <c r="KO5" s="4"/>
-      <c r="KP5" s="4"/>
-      <c r="KQ5" s="4"/>
-      <c r="KR5" s="4"/>
-      <c r="KS5" s="4"/>
-      <c r="KT5" s="4"/>
-      <c r="KU5" s="4"/>
-      <c r="KV5" s="4"/>
-      <c r="KW5" s="4"/>
-      <c r="KX5" s="4"/>
-      <c r="KY5" s="4"/>
-      <c r="KZ5" s="4"/>
-      <c r="LA5" s="4"/>
-      <c r="LB5" s="4"/>
-      <c r="LC5" s="4"/>
-      <c r="LD5" s="4"/>
-      <c r="LE5" s="4"/>
-      <c r="LF5" s="4"/>
-      <c r="LG5" s="4"/>
-      <c r="LH5" s="4"/>
-      <c r="LI5" s="4"/>
-      <c r="LJ5" s="4"/>
-      <c r="LK5" s="4"/>
-      <c r="LL5" s="4"/>
-      <c r="LM5" s="4"/>
-      <c r="LN5" s="4"/>
-      <c r="LO5" s="4"/>
-      <c r="LP5" s="4"/>
-      <c r="LQ5" s="4"/>
-      <c r="LR5" s="4"/>
-      <c r="LS5" s="4"/>
-      <c r="LT5" s="4"/>
-      <c r="LU5" s="4"/>
-      <c r="LV5" s="4"/>
-      <c r="LW5" s="4"/>
-      <c r="LX5" s="4"/>
-      <c r="LY5" s="4"/>
-      <c r="LZ5" s="4"/>
-      <c r="MA5" s="4"/>
-      <c r="MB5" s="4"/>
-      <c r="MC5" s="4"/>
-      <c r="MD5" s="4"/>
-      <c r="ME5" s="4"/>
-      <c r="MF5" s="4"/>
-      <c r="MG5" s="4"/>
-      <c r="MH5" s="4"/>
-      <c r="MI5" s="4"/>
-      <c r="MJ5" s="4"/>
-      <c r="MK5" s="4"/>
-      <c r="ML5" s="4"/>
-      <c r="MM5" s="4"/>
-      <c r="MN5" s="4"/>
-      <c r="MO5" s="4"/>
-      <c r="MP5" s="4"/>
-      <c r="MQ5" s="4"/>
-      <c r="MR5" s="4"/>
-      <c r="MS5" s="4"/>
-      <c r="MT5" s="4"/>
-      <c r="MU5" s="4"/>
-      <c r="MV5" s="4"/>
-      <c r="MW5" s="4"/>
-      <c r="MX5" s="4"/>
-      <c r="MY5" s="4"/>
-      <c r="MZ5" s="4"/>
-      <c r="NA5" s="4"/>
-      <c r="NB5" s="4"/>
-      <c r="NC5" s="4"/>
-      <c r="ND5" s="4"/>
-      <c r="NE5" s="4"/>
-      <c r="NF5" s="4"/>
-      <c r="NG5" s="4"/>
-      <c r="NH5" s="4"/>
-      <c r="NI5" s="4"/>
-      <c r="NJ5" s="4"/>
-      <c r="NK5" s="4"/>
-      <c r="NL5" s="4"/>
-      <c r="NM5" s="4"/>
-      <c r="NN5" s="4"/>
-      <c r="NO5" s="4"/>
-      <c r="NP5" s="4"/>
-      <c r="NQ5" s="4"/>
-      <c r="NR5" s="4"/>
-      <c r="NS5" s="4"/>
-      <c r="NT5" s="4"/>
-      <c r="NU5" s="4"/>
-      <c r="NV5" s="4"/>
-      <c r="NW5" s="4"/>
-      <c r="NX5" s="4"/>
-      <c r="NY5" s="4"/>
-      <c r="NZ5" s="4"/>
-      <c r="OA5" s="4"/>
-      <c r="OB5" s="4"/>
-      <c r="OC5" s="4"/>
-      <c r="OD5" s="4"/>
-      <c r="OE5" s="4"/>
-      <c r="OF5" s="4"/>
-      <c r="OG5" s="4"/>
-      <c r="OH5" s="4"/>
-      <c r="OI5" s="4"/>
-      <c r="OJ5" s="4"/>
-      <c r="OK5" s="4"/>
-      <c r="OL5" s="4"/>
-      <c r="OM5" s="4"/>
-      <c r="ON5" s="4"/>
-      <c r="OO5" s="4"/>
-      <c r="OP5" s="4"/>
-      <c r="OQ5" s="4"/>
-      <c r="OR5" s="4"/>
-      <c r="OS5" s="4"/>
-      <c r="OT5" s="4"/>
-      <c r="OU5" s="4"/>
-      <c r="OV5" s="4"/>
-      <c r="OW5" s="4"/>
-      <c r="OX5" s="4"/>
-      <c r="OY5" s="4"/>
-      <c r="OZ5" s="4"/>
-      <c r="PA5" s="4"/>
-      <c r="PB5" s="4"/>
-      <c r="PC5" s="4"/>
-      <c r="PD5" s="4"/>
-      <c r="PE5" s="4"/>
-      <c r="PF5" s="4"/>
-      <c r="PG5" s="4"/>
-      <c r="PH5" s="4"/>
-      <c r="PI5" s="4"/>
-      <c r="PJ5" s="4"/>
-      <c r="PK5" s="4"/>
-      <c r="PL5" s="4"/>
-      <c r="PM5" s="4"/>
-      <c r="PN5" s="4"/>
-      <c r="PO5" s="4"/>
-      <c r="PP5" s="4"/>
-      <c r="PQ5" s="4"/>
-      <c r="PR5" s="4"/>
-      <c r="PS5" s="4"/>
-      <c r="PT5" s="4"/>
-      <c r="PU5" s="4"/>
-      <c r="PV5" s="4"/>
-      <c r="PW5" s="4"/>
-      <c r="PX5" s="4"/>
-      <c r="PY5" s="4"/>
-      <c r="PZ5" s="4"/>
-      <c r="QA5" s="4"/>
-      <c r="QB5" s="4"/>
-      <c r="QC5" s="4"/>
-      <c r="QD5" s="4"/>
-      <c r="QE5" s="4"/>
-      <c r="QF5" s="4"/>
-      <c r="QG5" s="4"/>
-      <c r="QH5" s="4"/>
-      <c r="QI5" s="4"/>
-      <c r="QJ5" s="4"/>
-      <c r="QK5" s="4"/>
-      <c r="QL5" s="4"/>
-      <c r="QM5" s="4"/>
-      <c r="QN5" s="4"/>
-      <c r="QO5" s="4"/>
-      <c r="QP5" s="4"/>
-      <c r="QQ5" s="4"/>
-      <c r="QR5" s="4"/>
-      <c r="QS5" s="4"/>
-      <c r="QT5" s="4"/>
-      <c r="QU5" s="4"/>
-      <c r="QV5" s="4"/>
-      <c r="QW5" s="4"/>
-      <c r="QX5" s="4"/>
-      <c r="QY5" s="4"/>
-      <c r="QZ5" s="4"/>
-      <c r="RA5" s="4"/>
-      <c r="RB5" s="4"/>
-      <c r="RC5" s="4"/>
-      <c r="RD5" s="4"/>
-      <c r="RE5" s="4"/>
-      <c r="RF5" s="4"/>
-      <c r="RG5" s="4"/>
-      <c r="RH5" s="4"/>
-      <c r="RI5" s="4"/>
-      <c r="RJ5" s="4"/>
-      <c r="RK5" s="4"/>
-      <c r="RL5" s="4"/>
-      <c r="RM5" s="4"/>
-      <c r="RN5" s="4"/>
-      <c r="RO5" s="4"/>
-      <c r="RP5" s="4"/>
-      <c r="RQ5" s="4"/>
-      <c r="RR5" s="4"/>
-      <c r="RS5" s="4"/>
-      <c r="RT5" s="4"/>
     </row>
     <row r="6" spans="1:488" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="19" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="19">
-        <v>2</v>
-      </c>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="19">
+      <c r="L6" s="18"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="18">
+        <v>2</v>
+      </c>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="18">
         <v>1</v>
       </c>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="19">
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="18">
         <v>1</v>
       </c>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="19">
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="18">
         <v>1</v>
       </c>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="19"/>
-      <c r="BF6" s="19"/>
-      <c r="BG6" s="19"/>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="19"/>
-      <c r="BJ6" s="19"/>
-      <c r="BK6" s="19"/>
-      <c r="BL6" s="19"/>
-      <c r="BM6" s="19"/>
-      <c r="BN6" s="19"/>
-      <c r="BO6" s="19"/>
-      <c r="BP6" s="19"/>
-      <c r="BQ6" s="19"/>
-      <c r="BR6" s="19"/>
-      <c r="BS6" s="19"/>
-      <c r="BT6" s="19"/>
-      <c r="BU6" s="19"/>
-      <c r="BV6" s="19"/>
-      <c r="BW6" s="19"/>
-      <c r="BX6" s="19"/>
-      <c r="BY6" s="19"/>
-      <c r="BZ6" s="19"/>
-      <c r="CA6" s="19"/>
-      <c r="CB6" s="19"/>
-      <c r="CC6" s="19"/>
-      <c r="CD6" s="19"/>
-      <c r="CE6" s="19"/>
-      <c r="CF6" s="19"/>
-      <c r="CG6" s="19"/>
-      <c r="CH6" s="19"/>
-      <c r="CI6" s="19"/>
-      <c r="CJ6" s="19"/>
-      <c r="CK6" s="19"/>
-      <c r="CL6" s="19"/>
-      <c r="CM6" s="19"/>
-      <c r="CN6" s="19"/>
-      <c r="CO6" s="19"/>
-      <c r="CP6" s="19"/>
-      <c r="CQ6" s="19"/>
-      <c r="CR6" s="19"/>
-      <c r="CS6" s="19"/>
-      <c r="CT6" s="19"/>
-      <c r="CU6" s="19"/>
-      <c r="CV6" s="19"/>
-      <c r="CW6" s="19"/>
-      <c r="CX6" s="19"/>
-      <c r="CY6" s="19"/>
-      <c r="CZ6" s="19"/>
-      <c r="DA6" s="19"/>
-      <c r="DB6" s="19"/>
-      <c r="DC6" s="19"/>
-      <c r="DD6" s="19"/>
-      <c r="DE6" s="19"/>
-      <c r="DF6" s="19"/>
-      <c r="DG6" s="19"/>
-      <c r="DH6" s="19"/>
-      <c r="DI6" s="19"/>
-      <c r="DJ6" s="19"/>
-      <c r="DK6" s="19"/>
-      <c r="DL6" s="19"/>
-      <c r="DM6" s="19"/>
-      <c r="DN6" s="19"/>
-      <c r="DO6" s="19"/>
-      <c r="DP6" s="19"/>
-      <c r="DQ6" s="19"/>
-      <c r="DR6" s="19"/>
-      <c r="DS6" s="19"/>
-      <c r="DT6" s="19"/>
-      <c r="DU6" s="19"/>
-      <c r="DV6" s="19"/>
-      <c r="DW6" s="19"/>
-      <c r="DX6" s="19"/>
-      <c r="DY6" s="19"/>
-      <c r="DZ6" s="19"/>
-      <c r="EA6" s="19"/>
-      <c r="EB6" s="19"/>
-      <c r="EC6" s="19"/>
-      <c r="ED6" s="19"/>
-      <c r="EE6" s="19"/>
-      <c r="EF6" s="19"/>
-      <c r="EG6" s="19"/>
-      <c r="EH6" s="19"/>
-      <c r="EI6" s="19"/>
-      <c r="EJ6" s="19"/>
-      <c r="EK6" s="19"/>
-      <c r="EL6" s="19"/>
-      <c r="EM6" s="19"/>
-      <c r="EN6" s="19"/>
-      <c r="EO6" s="19"/>
-      <c r="EP6" s="19"/>
-      <c r="EQ6" s="19"/>
-      <c r="ER6" s="19"/>
-      <c r="ES6" s="19"/>
-      <c r="ET6" s="19"/>
-      <c r="EU6" s="19"/>
-      <c r="EV6" s="19"/>
-      <c r="EW6" s="19"/>
-      <c r="EX6" s="19"/>
-      <c r="EY6" s="19"/>
-      <c r="EZ6" s="19"/>
-      <c r="FA6" s="19"/>
-      <c r="FB6" s="19"/>
-      <c r="FC6" s="19"/>
-      <c r="FD6" s="19"/>
-      <c r="FE6" s="19"/>
-      <c r="FF6" s="19"/>
-      <c r="FG6" s="19"/>
-      <c r="FH6" s="19"/>
-      <c r="FI6" s="19"/>
-      <c r="FJ6" s="19"/>
-      <c r="FK6" s="19"/>
-      <c r="FL6" s="19"/>
-      <c r="FM6" s="19"/>
-      <c r="FN6" s="19"/>
-      <c r="FO6" s="19"/>
-      <c r="FP6" s="19"/>
-      <c r="FQ6" s="19"/>
-      <c r="FR6" s="19"/>
-      <c r="FS6" s="19"/>
-      <c r="FT6" s="19"/>
-      <c r="FU6" s="19"/>
-      <c r="FV6" s="19"/>
-      <c r="FW6" s="19"/>
-      <c r="FX6" s="19"/>
-      <c r="FY6" s="19"/>
-      <c r="FZ6" s="19"/>
-      <c r="GA6" s="19"/>
-      <c r="GB6" s="19"/>
-      <c r="GC6" s="19"/>
-      <c r="GD6" s="19"/>
-      <c r="GE6" s="19"/>
-      <c r="GF6" s="19"/>
-      <c r="GG6" s="19"/>
-      <c r="GH6" s="19"/>
-      <c r="GI6" s="19"/>
-      <c r="GJ6" s="19"/>
-      <c r="GK6" s="19"/>
-      <c r="GL6" s="19"/>
-      <c r="GM6" s="19"/>
-      <c r="GN6" s="19"/>
-      <c r="GO6" s="19"/>
-      <c r="GP6" s="19"/>
-      <c r="GQ6" s="19"/>
-      <c r="GR6" s="19"/>
-      <c r="GS6" s="19"/>
-      <c r="GT6" s="19"/>
-      <c r="GU6" s="19"/>
-      <c r="GV6" s="19"/>
-      <c r="GW6" s="19"/>
-      <c r="GX6" s="19"/>
-      <c r="GY6" s="19"/>
-      <c r="GZ6" s="19"/>
-      <c r="HA6" s="19"/>
-      <c r="HB6" s="19"/>
-      <c r="HC6" s="19"/>
-      <c r="HD6" s="19"/>
-      <c r="HE6" s="19"/>
-      <c r="HF6" s="19"/>
-      <c r="HG6" s="19"/>
-      <c r="HH6" s="19"/>
-      <c r="HI6" s="19"/>
-      <c r="HJ6" s="19"/>
-      <c r="HK6" s="19"/>
-      <c r="HL6" s="19"/>
-      <c r="HM6" s="19"/>
-      <c r="HN6" s="19"/>
-      <c r="HO6" s="19"/>
-      <c r="HP6" s="19"/>
-      <c r="HQ6" s="19"/>
-      <c r="HR6" s="19"/>
-      <c r="HS6" s="19"/>
-      <c r="HT6" s="19"/>
-      <c r="HU6" s="19"/>
-      <c r="HV6" s="19"/>
-      <c r="HW6" s="19"/>
-      <c r="HX6" s="19"/>
-      <c r="HY6" s="19"/>
-      <c r="HZ6" s="19"/>
-      <c r="IA6" s="19"/>
-      <c r="IB6" s="19"/>
-      <c r="IC6" s="19"/>
-      <c r="ID6" s="19"/>
-      <c r="IE6" s="19"/>
-      <c r="IF6" s="19"/>
-      <c r="IG6" s="19"/>
-      <c r="IH6" s="19"/>
-      <c r="II6" s="19"/>
-      <c r="IJ6" s="19"/>
-      <c r="IK6" s="19"/>
-      <c r="IL6" s="19"/>
-      <c r="IM6" s="19"/>
-      <c r="IN6" s="19"/>
-      <c r="IO6" s="19"/>
-      <c r="IP6" s="19"/>
-      <c r="IQ6" s="19"/>
-      <c r="IR6" s="19"/>
-      <c r="IS6" s="19"/>
-      <c r="IT6" s="19"/>
-      <c r="IU6" s="19"/>
-      <c r="IV6" s="19"/>
-      <c r="IW6" s="19"/>
-      <c r="IX6" s="19"/>
-      <c r="IY6" s="19"/>
-      <c r="IZ6" s="19"/>
-      <c r="JA6" s="19"/>
-      <c r="JB6" s="19"/>
-      <c r="JC6" s="19"/>
-      <c r="JD6" s="19"/>
-      <c r="JE6" s="19"/>
-      <c r="JF6" s="19"/>
-      <c r="JG6" s="19"/>
-      <c r="JH6" s="19"/>
-      <c r="JI6" s="19"/>
-      <c r="JJ6" s="19"/>
-      <c r="JK6" s="19"/>
-      <c r="JL6" s="19"/>
-      <c r="JM6" s="19"/>
-      <c r="JN6" s="19"/>
-      <c r="JO6" s="19"/>
-      <c r="JP6" s="19"/>
-      <c r="JQ6" s="19"/>
-      <c r="JR6" s="19"/>
-      <c r="JS6" s="19"/>
-      <c r="JT6" s="19"/>
-      <c r="JU6" s="19"/>
-      <c r="JV6" s="19"/>
-      <c r="JW6" s="19"/>
-      <c r="JX6" s="19"/>
-      <c r="JY6" s="19"/>
-      <c r="JZ6" s="19"/>
-      <c r="KA6" s="19"/>
-      <c r="KB6" s="19"/>
-      <c r="KC6" s="19"/>
-      <c r="KD6" s="19"/>
-      <c r="KE6" s="19"/>
-      <c r="KF6" s="19"/>
-      <c r="KG6" s="19"/>
-      <c r="KH6" s="19"/>
-      <c r="KI6" s="19"/>
-      <c r="KJ6" s="19"/>
-      <c r="KK6" s="19"/>
-      <c r="KL6" s="19"/>
-      <c r="KM6" s="19"/>
-      <c r="KN6" s="19"/>
-      <c r="KO6" s="19"/>
-      <c r="KP6" s="19"/>
-      <c r="KQ6" s="19"/>
-      <c r="KR6" s="19"/>
-      <c r="KS6" s="19"/>
-      <c r="KT6" s="19"/>
-      <c r="KU6" s="19"/>
-      <c r="KV6" s="19"/>
-      <c r="KW6" s="19"/>
-      <c r="KX6" s="19"/>
-      <c r="KY6" s="19"/>
-      <c r="KZ6" s="19"/>
-      <c r="LA6" s="19"/>
-      <c r="LB6" s="19"/>
-      <c r="LC6" s="19"/>
-      <c r="LD6" s="19"/>
-      <c r="LE6" s="19"/>
-      <c r="LF6" s="19"/>
-      <c r="LG6" s="19"/>
-      <c r="LH6" s="19"/>
-      <c r="LI6" s="19"/>
-      <c r="LJ6" s="19"/>
-      <c r="LK6" s="19"/>
-      <c r="LL6" s="19"/>
-      <c r="LM6" s="19"/>
-      <c r="LN6" s="19"/>
-      <c r="LO6" s="19"/>
-      <c r="LP6" s="19"/>
-      <c r="LQ6" s="19"/>
-      <c r="LR6" s="19"/>
-      <c r="LS6" s="19"/>
-      <c r="LT6" s="19"/>
-      <c r="LU6" s="19"/>
-      <c r="LV6" s="19"/>
-      <c r="LW6" s="19"/>
-      <c r="LX6" s="19"/>
-      <c r="LY6" s="19"/>
-      <c r="LZ6" s="19"/>
-      <c r="MA6" s="19"/>
-      <c r="MB6" s="19"/>
-      <c r="MC6" s="19"/>
-      <c r="MD6" s="19"/>
-      <c r="ME6" s="19"/>
-      <c r="MF6" s="19"/>
-      <c r="MG6" s="19"/>
-      <c r="MH6" s="19"/>
-      <c r="MI6" s="19"/>
-      <c r="MJ6" s="19"/>
-      <c r="MK6" s="19"/>
-      <c r="ML6" s="19"/>
-      <c r="MM6" s="19"/>
-      <c r="MN6" s="19"/>
-      <c r="MO6" s="19"/>
-      <c r="MP6" s="19"/>
-      <c r="MQ6" s="19"/>
-      <c r="MR6" s="19"/>
-      <c r="MS6" s="19"/>
-      <c r="MT6" s="19"/>
-      <c r="MU6" s="19"/>
-      <c r="MV6" s="19"/>
-      <c r="MW6" s="19"/>
-      <c r="MX6" s="19"/>
-      <c r="MY6" s="19"/>
-      <c r="MZ6" s="19"/>
-      <c r="NA6" s="19"/>
-      <c r="NB6" s="19"/>
-      <c r="NC6" s="19"/>
-      <c r="ND6" s="19"/>
-      <c r="NE6" s="19"/>
-      <c r="NF6" s="19"/>
-      <c r="NG6" s="19"/>
-      <c r="NH6" s="19"/>
-      <c r="NI6" s="19"/>
-      <c r="NJ6" s="19"/>
-      <c r="NK6" s="19"/>
-      <c r="NL6" s="19"/>
-      <c r="NM6" s="19"/>
-      <c r="NN6" s="19"/>
-      <c r="NO6" s="19"/>
-      <c r="NP6" s="19"/>
-      <c r="NQ6" s="19"/>
-      <c r="NR6" s="19"/>
-      <c r="NS6" s="19"/>
-      <c r="NT6" s="19"/>
-      <c r="NU6" s="19"/>
-      <c r="NV6" s="19"/>
-      <c r="NW6" s="19"/>
-      <c r="NX6" s="19"/>
-      <c r="NY6" s="19"/>
-      <c r="NZ6" s="19"/>
-      <c r="OA6" s="19"/>
-      <c r="OB6" s="19"/>
-      <c r="OC6" s="19"/>
-      <c r="OD6" s="19"/>
-      <c r="OE6" s="19"/>
-      <c r="OF6" s="19"/>
-      <c r="OG6" s="19"/>
-      <c r="OH6" s="19"/>
-      <c r="OI6" s="19"/>
-      <c r="OJ6" s="19"/>
-      <c r="OK6" s="19"/>
-      <c r="OL6" s="19"/>
-      <c r="OM6" s="19"/>
-      <c r="ON6" s="19"/>
-      <c r="OO6" s="19"/>
-      <c r="OP6" s="19"/>
-      <c r="OQ6" s="19"/>
-      <c r="OR6" s="19"/>
-      <c r="OS6" s="19"/>
-      <c r="OT6" s="19"/>
-      <c r="OU6" s="19"/>
-      <c r="OV6" s="19"/>
-      <c r="OW6" s="19"/>
-      <c r="OX6" s="19"/>
-      <c r="OY6" s="19"/>
-      <c r="OZ6" s="19"/>
-      <c r="PA6" s="19"/>
-      <c r="PB6" s="19"/>
-      <c r="PC6" s="19"/>
-      <c r="PD6" s="19"/>
-      <c r="PE6" s="19"/>
-      <c r="PF6" s="19"/>
-      <c r="PG6" s="19"/>
-      <c r="PH6" s="19"/>
-      <c r="PI6" s="19"/>
-      <c r="PJ6" s="19"/>
-      <c r="PK6" s="19"/>
-      <c r="PL6" s="19"/>
-      <c r="PM6" s="19"/>
-      <c r="PN6" s="19"/>
-      <c r="PO6" s="19"/>
-      <c r="PP6" s="19"/>
-      <c r="PQ6" s="19"/>
-      <c r="PR6" s="19"/>
-      <c r="PS6" s="19"/>
-      <c r="PT6" s="19"/>
-      <c r="PU6" s="19"/>
-      <c r="PV6" s="19"/>
-      <c r="PW6" s="19"/>
-      <c r="PX6" s="19"/>
-      <c r="PY6" s="19"/>
-      <c r="PZ6" s="19"/>
-      <c r="QA6" s="19"/>
-      <c r="QB6" s="19"/>
-      <c r="QC6" s="19"/>
-      <c r="QD6" s="19"/>
-      <c r="QE6" s="19"/>
-      <c r="QF6" s="19"/>
-      <c r="QG6" s="19"/>
-      <c r="QH6" s="19"/>
-      <c r="QI6" s="19"/>
-      <c r="QJ6" s="19"/>
-      <c r="QK6" s="19"/>
-      <c r="QL6" s="19"/>
-      <c r="QM6" s="19"/>
-      <c r="QN6" s="19"/>
-      <c r="QO6" s="19"/>
-      <c r="QP6" s="19"/>
-      <c r="QQ6" s="19"/>
-      <c r="QR6" s="19"/>
-      <c r="QS6" s="19"/>
-      <c r="QT6" s="19"/>
-      <c r="QU6" s="19"/>
-      <c r="QV6" s="19"/>
-      <c r="QW6" s="19"/>
-      <c r="QX6" s="19"/>
-      <c r="QY6" s="19"/>
-      <c r="QZ6" s="19"/>
-      <c r="RA6" s="19"/>
-      <c r="RB6" s="19"/>
-      <c r="RC6" s="19"/>
-      <c r="RD6" s="19"/>
-      <c r="RE6" s="19"/>
-      <c r="RF6" s="19"/>
-      <c r="RG6" s="19"/>
-      <c r="RH6" s="19"/>
-      <c r="RI6" s="19"/>
-      <c r="RJ6" s="19"/>
-      <c r="RK6" s="19"/>
-      <c r="RL6" s="19"/>
-      <c r="RM6" s="19"/>
-      <c r="RN6" s="19"/>
-      <c r="RO6" s="19"/>
-      <c r="RP6" s="19"/>
-      <c r="RQ6" s="19"/>
-      <c r="RR6" s="19"/>
-      <c r="RS6" s="19"/>
-      <c r="RT6" s="19"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="18"/>
+      <c r="BK6" s="18"/>
+      <c r="BL6" s="18"/>
+      <c r="BM6" s="18"/>
+      <c r="BN6" s="18"/>
+      <c r="BO6" s="18"/>
+      <c r="BP6" s="18"/>
+      <c r="BQ6" s="18"/>
+      <c r="BR6" s="18"/>
+      <c r="BS6" s="18"/>
+      <c r="BT6" s="18"/>
+      <c r="BU6" s="18"/>
+      <c r="BV6" s="18"/>
+      <c r="BW6" s="18"/>
+      <c r="BX6" s="18"/>
+      <c r="BY6" s="18"/>
+      <c r="BZ6" s="18"/>
+      <c r="CA6" s="18"/>
+      <c r="CB6" s="18"/>
+      <c r="CC6" s="18"/>
+      <c r="CD6" s="18"/>
+      <c r="CE6" s="18"/>
+      <c r="CF6" s="18"/>
+      <c r="CG6" s="18"/>
+      <c r="CH6" s="18"/>
+      <c r="CI6" s="18"/>
+      <c r="CJ6" s="18"/>
+      <c r="CK6" s="18"/>
+      <c r="CL6" s="18"/>
+      <c r="CM6" s="18"/>
+      <c r="CN6" s="18"/>
+      <c r="CO6" s="18"/>
+      <c r="CP6" s="18"/>
+      <c r="CQ6" s="18"/>
+      <c r="CR6" s="18"/>
+      <c r="CS6" s="18"/>
+      <c r="CT6" s="18"/>
+      <c r="CU6" s="18"/>
+      <c r="CV6" s="18"/>
+      <c r="CW6" s="18"/>
+      <c r="CX6" s="18"/>
+      <c r="CY6" s="18"/>
+      <c r="CZ6" s="18"/>
+      <c r="DA6" s="18"/>
+      <c r="DB6" s="18"/>
+      <c r="DC6" s="18"/>
+      <c r="DD6" s="18"/>
+      <c r="DE6" s="18"/>
+      <c r="DF6" s="18"/>
+      <c r="DG6" s="18"/>
+      <c r="DH6" s="18"/>
+      <c r="DI6" s="18"/>
+      <c r="DJ6" s="18"/>
+      <c r="DK6" s="18"/>
+      <c r="DL6" s="18"/>
+      <c r="DM6" s="18"/>
+      <c r="DN6" s="18"/>
+      <c r="DO6" s="18"/>
+      <c r="DP6" s="18"/>
+      <c r="DQ6" s="18"/>
+      <c r="DR6" s="18"/>
+      <c r="DS6" s="18"/>
+      <c r="DT6" s="18"/>
+      <c r="DU6" s="18"/>
+      <c r="DV6" s="18"/>
+      <c r="DW6" s="18"/>
+      <c r="DX6" s="18"/>
+      <c r="DY6" s="18"/>
+      <c r="DZ6" s="18"/>
+      <c r="EA6" s="18"/>
+      <c r="EB6" s="18"/>
+      <c r="EC6" s="18"/>
+      <c r="ED6" s="18"/>
+      <c r="EE6" s="18"/>
+      <c r="EF6" s="18"/>
+      <c r="EG6" s="18"/>
+      <c r="EH6" s="18"/>
+      <c r="EI6" s="18"/>
+      <c r="EJ6" s="18"/>
+      <c r="EK6" s="18"/>
+      <c r="EL6" s="18"/>
+      <c r="EM6" s="18"/>
+      <c r="EN6" s="18"/>
+      <c r="EO6" s="18"/>
+      <c r="EP6" s="18"/>
+      <c r="EQ6" s="18"/>
+      <c r="ER6" s="18"/>
+      <c r="ES6" s="18"/>
+      <c r="ET6" s="18"/>
+      <c r="EU6" s="18"/>
+      <c r="EV6" s="18"/>
+      <c r="EW6" s="18"/>
+      <c r="EX6" s="18"/>
+      <c r="EY6" s="18"/>
+      <c r="EZ6" s="18"/>
+      <c r="FA6" s="18"/>
+      <c r="FB6" s="18"/>
+      <c r="FC6" s="18"/>
+      <c r="FD6" s="18"/>
+      <c r="FE6" s="18"/>
+      <c r="FF6" s="18"/>
+      <c r="FG6" s="18"/>
+      <c r="FH6" s="18"/>
+      <c r="FI6" s="18"/>
+      <c r="FJ6" s="18"/>
+      <c r="FK6" s="18"/>
+      <c r="FL6" s="18"/>
+      <c r="FM6" s="18"/>
+      <c r="FN6" s="18"/>
+      <c r="FO6" s="18"/>
+      <c r="FP6" s="18"/>
+      <c r="FQ6" s="18"/>
+      <c r="FR6" s="18"/>
+      <c r="FS6" s="18"/>
+      <c r="FT6" s="18"/>
+      <c r="FU6" s="18"/>
+      <c r="FV6" s="18"/>
+      <c r="FW6" s="18"/>
+      <c r="FX6" s="18"/>
+      <c r="FY6" s="18"/>
+      <c r="FZ6" s="18"/>
+      <c r="GA6" s="18"/>
+      <c r="GB6" s="18"/>
+      <c r="GC6" s="18"/>
+      <c r="GD6" s="18"/>
+      <c r="GE6" s="18"/>
+      <c r="GF6" s="18"/>
+      <c r="GG6" s="18"/>
+      <c r="GH6" s="18"/>
+      <c r="GI6" s="18"/>
+      <c r="GJ6" s="18"/>
+      <c r="GK6" s="18"/>
+      <c r="GL6" s="18"/>
+      <c r="GM6" s="18"/>
+      <c r="GN6" s="18"/>
+      <c r="GO6" s="18"/>
+      <c r="GP6" s="18"/>
+      <c r="GQ6" s="18"/>
+      <c r="GR6" s="18"/>
+      <c r="GS6" s="18"/>
+      <c r="GT6" s="18"/>
+      <c r="GU6" s="18"/>
+      <c r="GV6" s="18"/>
+      <c r="GW6" s="18"/>
+      <c r="GX6" s="18"/>
+      <c r="GY6" s="18"/>
+      <c r="GZ6" s="18"/>
+      <c r="HA6" s="18"/>
+      <c r="HB6" s="18"/>
+      <c r="HC6" s="18"/>
+      <c r="HD6" s="18"/>
+      <c r="HE6" s="18"/>
+      <c r="HF6" s="18"/>
+      <c r="HG6" s="18"/>
+      <c r="HH6" s="18"/>
+      <c r="HI6" s="18"/>
+      <c r="HJ6" s="18"/>
+      <c r="HK6" s="18"/>
+      <c r="HL6" s="18"/>
+      <c r="HM6" s="18"/>
+      <c r="HN6" s="18"/>
+      <c r="HO6" s="18"/>
+      <c r="HP6" s="18"/>
+      <c r="HQ6" s="18"/>
+      <c r="HR6" s="18"/>
+      <c r="HS6" s="18"/>
+      <c r="HT6" s="18"/>
+      <c r="HU6" s="18"/>
+      <c r="HV6" s="18"/>
+      <c r="HW6" s="18"/>
+      <c r="HX6" s="18"/>
+      <c r="HY6" s="18"/>
+      <c r="HZ6" s="18"/>
+      <c r="IA6" s="18"/>
+      <c r="IB6" s="18"/>
+      <c r="IC6" s="18"/>
+      <c r="ID6" s="18"/>
+      <c r="IE6" s="18"/>
+      <c r="IF6" s="18"/>
+      <c r="IG6" s="18"/>
+      <c r="IH6" s="18"/>
+      <c r="II6" s="18"/>
+      <c r="IJ6" s="18"/>
+      <c r="IK6" s="18"/>
+      <c r="IL6" s="18"/>
+      <c r="IM6" s="18"/>
+      <c r="IN6" s="18"/>
+      <c r="IO6" s="18"/>
+      <c r="IP6" s="18"/>
+      <c r="IQ6" s="18"/>
+      <c r="IR6" s="18"/>
+      <c r="IS6" s="18"/>
+      <c r="IT6" s="18"/>
+      <c r="IU6" s="18"/>
+      <c r="IV6" s="18"/>
+      <c r="IW6" s="18"/>
+      <c r="IX6" s="18"/>
+      <c r="IY6" s="18"/>
+      <c r="IZ6" s="18"/>
+      <c r="JA6" s="18"/>
+      <c r="JB6" s="18"/>
+      <c r="JC6" s="18"/>
+      <c r="JD6" s="18"/>
+      <c r="JE6" s="18"/>
+      <c r="JF6" s="18"/>
+      <c r="JG6" s="18"/>
+      <c r="JH6" s="18"/>
+      <c r="JI6" s="18"/>
+      <c r="JJ6" s="18"/>
+      <c r="JK6" s="18"/>
+      <c r="JL6" s="18"/>
+      <c r="JM6" s="18"/>
+      <c r="JN6" s="18"/>
+      <c r="JO6" s="18"/>
+      <c r="JP6" s="18"/>
+      <c r="JQ6" s="18"/>
+      <c r="JR6" s="18"/>
+      <c r="JS6" s="18"/>
+      <c r="JT6" s="18"/>
+      <c r="JU6" s="18"/>
+      <c r="JV6" s="18"/>
+      <c r="JW6" s="18"/>
+      <c r="JX6" s="18"/>
+      <c r="JY6" s="18"/>
+      <c r="JZ6" s="18"/>
+      <c r="KA6" s="18"/>
+      <c r="KB6" s="18"/>
+      <c r="KC6" s="18"/>
+      <c r="KD6" s="18"/>
+      <c r="KE6" s="18"/>
+      <c r="KF6" s="18"/>
+      <c r="KG6" s="18"/>
+      <c r="KH6" s="18"/>
+      <c r="KI6" s="18"/>
+      <c r="KJ6" s="18"/>
+      <c r="KK6" s="18"/>
+      <c r="KL6" s="18"/>
+      <c r="KM6" s="18"/>
+      <c r="KN6" s="18"/>
+      <c r="KO6" s="18"/>
+      <c r="KP6" s="18"/>
+      <c r="KQ6" s="18"/>
+      <c r="KR6" s="18"/>
+      <c r="KS6" s="18"/>
+      <c r="KT6" s="18"/>
+      <c r="KU6" s="18"/>
+      <c r="KV6" s="18"/>
+      <c r="KW6" s="18"/>
+      <c r="KX6" s="18"/>
+      <c r="KY6" s="18"/>
+      <c r="KZ6" s="18"/>
+      <c r="LA6" s="18"/>
+      <c r="LB6" s="18"/>
+      <c r="LC6" s="18"/>
+      <c r="LD6" s="18"/>
+      <c r="LE6" s="18"/>
+      <c r="LF6" s="18"/>
+      <c r="LG6" s="18"/>
+      <c r="LH6" s="18"/>
+      <c r="LI6" s="18"/>
+      <c r="LJ6" s="18"/>
+      <c r="LK6" s="18"/>
+      <c r="LL6" s="18"/>
+      <c r="LM6" s="18"/>
+      <c r="LN6" s="18"/>
+      <c r="LO6" s="18"/>
+      <c r="LP6" s="18"/>
+      <c r="LQ6" s="18"/>
+      <c r="LR6" s="18"/>
+      <c r="LS6" s="18"/>
+      <c r="LT6" s="18"/>
+      <c r="LU6" s="18"/>
+      <c r="LV6" s="18"/>
+      <c r="LW6" s="18"/>
+      <c r="LX6" s="18"/>
+      <c r="LY6" s="18"/>
+      <c r="LZ6" s="18"/>
+      <c r="MA6" s="18"/>
+      <c r="MB6" s="18"/>
+      <c r="MC6" s="18"/>
+      <c r="MD6" s="18"/>
+      <c r="ME6" s="18"/>
+      <c r="MF6" s="18"/>
+      <c r="MG6" s="18"/>
+      <c r="MH6" s="18"/>
+      <c r="MI6" s="18"/>
+      <c r="MJ6" s="18"/>
+      <c r="MK6" s="18"/>
+      <c r="ML6" s="18"/>
+      <c r="MM6" s="18"/>
+      <c r="MN6" s="18"/>
+      <c r="MO6" s="18"/>
+      <c r="MP6" s="18"/>
+      <c r="MQ6" s="18"/>
+      <c r="MR6" s="18"/>
+      <c r="MS6" s="18"/>
+      <c r="MT6" s="18"/>
+      <c r="MU6" s="18"/>
+      <c r="MV6" s="18"/>
+      <c r="MW6" s="18"/>
+      <c r="MX6" s="18"/>
+      <c r="MY6" s="18"/>
+      <c r="MZ6" s="18"/>
+      <c r="NA6" s="18"/>
+      <c r="NB6" s="18"/>
+      <c r="NC6" s="18"/>
+      <c r="ND6" s="18"/>
+      <c r="NE6" s="18"/>
+      <c r="NF6" s="18"/>
+      <c r="NG6" s="18"/>
+      <c r="NH6" s="18"/>
+      <c r="NI6" s="18"/>
+      <c r="NJ6" s="18"/>
+      <c r="NK6" s="18"/>
+      <c r="NL6" s="18"/>
+      <c r="NM6" s="18"/>
+      <c r="NN6" s="18"/>
+      <c r="NO6" s="18"/>
+      <c r="NP6" s="18"/>
+      <c r="NQ6" s="18"/>
+      <c r="NR6" s="18"/>
+      <c r="NS6" s="18"/>
+      <c r="NT6" s="18"/>
+      <c r="NU6" s="18"/>
+      <c r="NV6" s="18"/>
+      <c r="NW6" s="18"/>
+      <c r="NX6" s="18"/>
+      <c r="NY6" s="18"/>
+      <c r="NZ6" s="18"/>
+      <c r="OA6" s="18"/>
+      <c r="OB6" s="18"/>
+      <c r="OC6" s="18"/>
+      <c r="OD6" s="18"/>
+      <c r="OE6" s="18"/>
+      <c r="OF6" s="18"/>
+      <c r="OG6" s="18"/>
+      <c r="OH6" s="18"/>
+      <c r="OI6" s="18"/>
+      <c r="OJ6" s="18"/>
+      <c r="OK6" s="18"/>
+      <c r="OL6" s="18"/>
+      <c r="OM6" s="18"/>
+      <c r="ON6" s="18"/>
+      <c r="OO6" s="18"/>
+      <c r="OP6" s="18"/>
+      <c r="OQ6" s="18"/>
+      <c r="OR6" s="18"/>
+      <c r="OS6" s="18"/>
+      <c r="OT6" s="18"/>
+      <c r="OU6" s="18"/>
+      <c r="OV6" s="18"/>
+      <c r="OW6" s="18"/>
+      <c r="OX6" s="18"/>
+      <c r="OY6" s="18"/>
+      <c r="OZ6" s="18"/>
+      <c r="PA6" s="18"/>
+      <c r="PB6" s="18"/>
+      <c r="PC6" s="18"/>
+      <c r="PD6" s="18"/>
+      <c r="PE6" s="18"/>
+      <c r="PF6" s="18"/>
+      <c r="PG6" s="18"/>
+      <c r="PH6" s="18"/>
+      <c r="PI6" s="18"/>
+      <c r="PJ6" s="18"/>
+      <c r="PK6" s="18"/>
+      <c r="PL6" s="18"/>
+      <c r="PM6" s="18"/>
+      <c r="PN6" s="18"/>
+      <c r="PO6" s="18"/>
+      <c r="PP6" s="18"/>
+      <c r="PQ6" s="18"/>
+      <c r="PR6" s="18"/>
+      <c r="PS6" s="18"/>
+      <c r="PT6" s="18"/>
+      <c r="PU6" s="18"/>
+      <c r="PV6" s="18"/>
+      <c r="PW6" s="18"/>
+      <c r="PX6" s="18"/>
+      <c r="PY6" s="18"/>
+      <c r="PZ6" s="18"/>
+      <c r="QA6" s="18"/>
+      <c r="QB6" s="18"/>
+      <c r="QC6" s="18"/>
+      <c r="QD6" s="18"/>
+      <c r="QE6" s="18"/>
+      <c r="QF6" s="18"/>
+      <c r="QG6" s="18"/>
+      <c r="QH6" s="18"/>
+      <c r="QI6" s="18"/>
+      <c r="QJ6" s="18"/>
+      <c r="QK6" s="18"/>
+      <c r="QL6" s="18"/>
+      <c r="QM6" s="18"/>
+      <c r="QN6" s="18"/>
+      <c r="QO6" s="18"/>
+      <c r="QP6" s="18"/>
+      <c r="QQ6" s="18"/>
+      <c r="QR6" s="18"/>
+      <c r="QS6" s="18"/>
+      <c r="QT6" s="18"/>
+      <c r="QU6" s="18"/>
+      <c r="QV6" s="18"/>
+      <c r="QW6" s="18"/>
+      <c r="QX6" s="18"/>
+      <c r="QY6" s="18"/>
+      <c r="QZ6" s="18"/>
+      <c r="RA6" s="18"/>
+      <c r="RB6" s="18"/>
+      <c r="RC6" s="18"/>
+      <c r="RD6" s="18"/>
+      <c r="RE6" s="18"/>
+      <c r="RF6" s="18"/>
+      <c r="RG6" s="18"/>
+      <c r="RH6" s="18"/>
+      <c r="RI6" s="18"/>
+      <c r="RJ6" s="18"/>
+      <c r="RK6" s="18"/>
+      <c r="RL6" s="18"/>
+      <c r="RM6" s="18"/>
+      <c r="RN6" s="18"/>
+      <c r="RO6" s="18"/>
+      <c r="RP6" s="18"/>
+      <c r="RQ6" s="18"/>
+      <c r="RR6" s="18"/>
+      <c r="RS6" s="18"/>
+      <c r="RT6" s="18"/>
     </row>
     <row r="7" spans="1:488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
@@ -3268,7 +2815,7 @@
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="4" t="s">
         <v>95</v>
       </c>
@@ -3322,7 +2869,7 @@
       <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="4" t="s">
         <v>95</v>
       </c>
@@ -3377,7 +2924,7 @@
       <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="4" t="s">
         <v>95</v>
       </c>
@@ -3430,7 +2977,7 @@
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="4" t="s">
         <v>95</v>
       </c>
@@ -3486,7 +3033,7 @@
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="4" t="s">
         <v>95</v>
       </c>
@@ -3542,11 +3089,11 @@
       <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3596,11 +3143,11 @@
       <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3650,11 +3197,11 @@
       <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3702,7 +3249,7 @@
       <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="4" t="s">
         <v>95</v>
       </c>
@@ -3758,7 +3305,7 @@
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="4" t="s">
         <v>95</v>
       </c>
@@ -3817,7 +3364,7 @@
       <c r="B17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="4" t="s">
         <v>95</v>
       </c>
@@ -3873,7 +3420,7 @@
       <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -3908,7 +3455,7 @@
       <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="4" t="s">
         <v>95</v>
       </c>
@@ -3941,7 +3488,7 @@
       <c r="B20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>101</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -3976,7 +3523,7 @@
       <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="4" t="s">
         <v>95</v>
       </c>
@@ -4009,7 +3556,7 @@
       <c r="B22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="4" t="s">
         <v>95</v>
       </c>
@@ -4042,7 +3589,7 @@
       <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="4" t="s">
         <v>95</v>
       </c>
@@ -4075,7 +3622,7 @@
       <c r="B24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="4" t="s">
         <v>95</v>
       </c>
@@ -4108,11 +3655,11 @@
       <c r="B25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="12"/>
       <c r="K25" s="4" t="s">
         <v>59</v>
       </c>
@@ -4139,11 +3686,11 @@
       <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="12"/>
       <c r="K26" s="4" t="s">
         <v>60</v>
       </c>
@@ -4170,11 +3717,11 @@
       <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="12"/>
       <c r="K27" s="4" t="s">
         <v>61</v>
       </c>
@@ -4199,11 +3746,11 @@
       <c r="B28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="12"/>
       <c r="K28" s="4" t="s">
         <v>62</v>
       </c>
@@ -4228,13 +3775,13 @@
       <c r="B29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="21" t="s">
         <v>102</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>122</v>
       </c>
       <c r="K29" s="4" t="s">
@@ -4266,11 +3813,11 @@
       <c r="B30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="12"/>
       <c r="K30" s="4" t="s">
         <v>64</v>
       </c>
@@ -4297,11 +3844,11 @@
       <c r="B31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>122</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -4328,13 +3875,13 @@
       <c r="B32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>103</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>123</v>
       </c>
       <c r="K32" s="4" t="s">
@@ -4363,11 +3910,11 @@
       <c r="B33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="12"/>
       <c r="K33" s="4" t="s">
         <v>67</v>
       </c>
@@ -4394,11 +3941,11 @@
       <c r="B34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="12"/>
       <c r="K34" s="4" t="s">
         <v>68</v>
       </c>
@@ -4423,7 +3970,7 @@
       <c r="B35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="4" t="s">
         <v>99</v>
       </c>
@@ -4459,7 +4006,7 @@
       <c r="B36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="4" t="s">
         <v>99</v>
       </c>
@@ -4490,7 +4037,7 @@
       <c r="B37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="21" t="s">
         <v>104</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -4525,7 +4072,7 @@
       <c r="B38" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="23"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="4" t="s">
         <v>95</v>
       </c>
@@ -4558,11 +4105,11 @@
       <c r="B39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>127</v>
       </c>
       <c r="K39" s="4" t="s">
@@ -4591,11 +4138,11 @@
       <c r="B40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>127</v>
       </c>
       <c r="K40" s="4" t="s">
@@ -4624,11 +4171,11 @@
       <c r="B41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>127</v>
       </c>
       <c r="K41" s="4" t="s">
@@ -4657,7 +4204,7 @@
       <c r="B42" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="4" t="s">
         <v>96</v>
       </c>
@@ -4690,7 +4237,7 @@
       <c r="B43" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="23"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="4" t="s">
         <v>96</v>
       </c>
@@ -4726,7 +4273,7 @@
       <c r="B44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="23"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="4" t="s">
         <v>96</v>
       </c>
@@ -4762,7 +4309,7 @@
       <c r="B45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="23"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="4" t="s">
         <v>95</v>
       </c>
@@ -4795,7 +4342,7 @@
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="4" t="s">
         <v>95</v>
       </c>
@@ -4828,7 +4375,7 @@
       <c r="B47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="23"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="4" t="s">
         <v>95</v>
       </c>
@@ -4861,7 +4408,7 @@
       <c r="B48" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="23"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="4" t="s">
         <v>95</v>
       </c>
@@ -4894,7 +4441,7 @@
       <c r="B49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="23"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="4" t="s">
         <v>95</v>
       </c>
@@ -4927,7 +4474,7 @@
       <c r="B50" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="23"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="4" t="s">
         <v>95</v>
       </c>
@@ -4961,7 +4508,7 @@
       <c r="B51" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="23"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="4" t="s">
         <v>95</v>
       </c>
@@ -4994,7 +4541,7 @@
       <c r="B52" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="23"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="4" t="s">
         <v>95</v>
       </c>
@@ -5027,7 +4574,7 @@
       <c r="B53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="23"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="4" t="s">
         <v>95</v>
       </c>
@@ -5060,11 +4607,11 @@
       <c r="B54" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="23"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E54" s="13"/>
+      <c r="E54" s="12"/>
       <c r="K54" s="4" t="s">
         <v>86</v>
       </c>
@@ -5091,11 +4638,11 @@
       <c r="B55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="23"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="13"/>
+      <c r="E55" s="12"/>
       <c r="K55" s="4" t="s">
         <v>87</v>
       </c>
@@ -5120,11 +4667,11 @@
       <c r="B56" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="23"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="13"/>
+      <c r="E56" s="12"/>
       <c r="K56" s="4" t="s">
         <v>88</v>
       </c>
@@ -5149,7 +4696,7 @@
       <c r="B57" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="23"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="4" t="s">
         <v>95</v>
       </c>
@@ -5182,17 +4729,17 @@
       <c r="B58" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="23"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="12" t="s">
         <v>139</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L58" s="15" t="s">
+      <c r="L58" s="14" t="s">
         <v>160</v>
       </c>
       <c r="S58" s="4">
@@ -5212,31 +4759,30 @@
       <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="23"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K59" s="22" t="s">
+      <c r="K59" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L59" s="22"/>
-      <c r="O59" s="22"/>
+      <c r="L59" s="4"/>
       <c r="S59" s="4">
         <v>2</v>
       </c>
-      <c r="AC59" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="22">
+      <c r="AC59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5244,31 +4790,30 @@
       <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="23"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K60" s="22" t="s">
+      <c r="K60" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L60" s="22"/>
-      <c r="O60" s="22"/>
+      <c r="L60" s="4"/>
       <c r="S60" s="4">
         <v>2</v>
       </c>
-      <c r="AC60" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="22">
+      <c r="AC60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="4">
         <v>1</v>
       </c>
-      <c r="AI60" s="22">
+      <c r="AI60" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5279,7 +4824,7 @@
       <c r="B61" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="23"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="4" t="s">
         <v>95</v>
       </c>
@@ -5310,7 +4855,7 @@
       <c r="B62" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="23"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="4" t="s">
         <v>95</v>
       </c>
@@ -5338,7 +4883,30 @@
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="S63" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC63" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI63" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
